--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -44,7 +44,43 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:25 AM</t>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 17 June, 2025 9:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +290,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +302,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +710,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>14.869999999999999</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>25</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +820,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -74,13 +89,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 17 June, 2025 9:26 AM</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 17 June, 2025 10:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,53 +775,86 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>14.869999999999999</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>24</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>25</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>44.630000000000003</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>29</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>30</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +873,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
     <t>7:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>12.8700</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -89,13 +101,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 17 June, 2025 10:30 AM</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 17 June, 2025 10:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -808,53 +820,86 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>44.630000000000003</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>28</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>29</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>28</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>29</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>30</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>54.310000000000002</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>32</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>33</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>34</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -878,10 +923,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -89,15 +101,48 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -107,7 +152,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 10:45 AM</t>
+    <t>Tuesday, 17 June, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -853,53 +898,185 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>30</v>
       </c>
-      <c t="s" r="Q10" s="12">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>54.310000000000002</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
         <v>32</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>33</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>34</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c t="s" r="Q11" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>36</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>37</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>16</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>41</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>31</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>32</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>44</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>269.81</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>47</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>48</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>49</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -928,10 +1105,30 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -152,7 +152,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 10:54 AM</t>
+    <t>Tuesday, 17 June, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -92,9 +104,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -152,7 +161,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 11:07 AM</t>
+    <t>Tuesday, 17 June, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -843,7 +852,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -852,14 +861,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -869,14 +878,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -925,24 +934,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -951,31 +960,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -984,14 +993,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1001,14 +1010,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1024,13 +1033,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1041,42 +1050,75 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>269.81</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>34</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>35</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>47</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>48</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c t="s" r="Q15" s="12">
         <v>49</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>287.63</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>50</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>51</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>52</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1125,10 +1167,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -161,7 +161,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 11:18 AM</t>
+    <t>Tuesday, 17 June, 2025 11:21 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -140,6 +149,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
@@ -158,10 +179,16 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 17 June, 2025 11:21 AM</t>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 17 June, 2025 11:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -934,7 +961,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -951,7 +978,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -967,24 +994,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -993,31 +1020,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1026,14 +1053,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1043,14 +1070,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1066,59 +1093,158 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>287.63</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>50</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>51</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>52</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>37</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>38</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>54</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>47</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>38</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>57</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>368.63</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>59</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>60</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>61</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1172,10 +1298,25 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -188,7 +188,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 11:24 AM</t>
+    <t>Tuesday, 17 June, 2025 11:25 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -188,7 +188,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 11:25 AM</t>
+    <t>Tuesday, 17 June, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -188,7 +188,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 11:30 AM</t>
+    <t>Tuesday, 17 June, 2025 11:31 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -89,21 +89,12 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -188,7 +179,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 11:31 AM</t>
+    <t>Tuesday, 17 June, 2025 11:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -945,7 +936,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -961,7 +952,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -978,7 +969,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -994,24 +985,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1020,31 +1011,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1053,14 +1044,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1070,14 +1061,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1086,14 +1077,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1110,7 +1101,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1126,13 +1117,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1143,7 +1134,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1159,13 +1150,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1176,75 +1167,42 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="A18" s="7">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c t="s" r="C18" s="8">
+      <c r="P18" s="13">
+        <v>333.13</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
         <v>56</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c t="s" r="H18" s="9">
-        <v>47</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c t="s" r="L18" s="10">
-        <v>38</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c t="s" r="N18" s="8">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
         <v>57</v>
       </c>
-      <c r="O18" s="8"/>
-      <c t="s" r="P18" s="11">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
         <v>58</v>
       </c>
-      <c t="s" r="Q18" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>368.63</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>59</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>60</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
-        <v>61</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1308,15 +1266,10 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 11:33 AM</t>
+    <t>Tuesday, 17 June, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 11:39 AM</t>
+    <t>Tuesday, 17 June, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 11:40 AM</t>
+    <t>Tuesday, 17 June, 2025 11:41 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -167,7 +176,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
@@ -179,7 +191,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 11:41 AM</t>
+    <t>Tuesday, 17 June, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -886,7 +898,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -896,14 +908,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -912,14 +924,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -929,14 +941,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -945,14 +957,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -969,7 +981,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -985,24 +997,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1011,31 +1023,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1044,14 +1056,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1061,14 +1073,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1077,14 +1089,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1101,7 +1113,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1117,13 +1129,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1134,7 +1146,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1150,13 +1162,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1167,42 +1179,75 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>333.13</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>56</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>57</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>47</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>38</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>58</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>362.35500000000002</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>60</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>61</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>62</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1266,10 +1311,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 11:57 AM</t>
+    <t>Tuesday, 17 June, 2025 12:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 12:00 PM</t>
+    <t>Tuesday, 17 June, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>COBAL F 500/200MCG 30 F.C. TAB</t>
   </si>
   <si>
@@ -101,9 +116,6 @@
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -191,7 +203,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 12:05 PM</t>
+    <t>Tuesday, 17 June, 2025 12:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -882,7 +894,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -891,14 +903,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -908,11 +920,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -924,14 +936,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -941,14 +953,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -981,7 +993,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -990,14 +1002,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1007,14 +1019,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1023,31 +1035,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1056,20 +1068,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1080,7 +1092,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1089,14 +1101,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1106,14 +1118,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1129,7 +1141,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1139,14 +1151,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,31 +1167,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1195,13 +1207,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1212,42 +1224,75 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>362.35500000000002</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>60</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>61</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>51</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>42</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>62</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>375.35500000000002</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>64</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>65</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>66</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1316,10 +1361,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -203,7 +203,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 12:09 PM</t>
+    <t>Tuesday, 17 June, 2025 12:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>NAPIZOLE 40MG 14CAP</t>
   </si>
   <si>
@@ -203,7 +212,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 12:10 PM</t>
+    <t>Tuesday, 17 June, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1075,24 +1084,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1101,31 +1110,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1134,14 +1143,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1151,14 +1160,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1167,14 +1176,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1191,7 +1200,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1207,13 +1216,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1224,7 +1233,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1233,66 +1242,99 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>63</v>
       </c>
-      <c t="s" r="Q19" s="12">
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>54</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>45</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>375.35500000000002</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>64</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>65</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
-        <v>66</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>412.97500000000002</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>67</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>68</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>69</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1366,10 +1408,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 12:26 PM</t>
+    <t>Tuesday, 17 June, 2025 12:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 12:39 PM</t>
+    <t>Tuesday, 17 June, 2025 12:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -44,24 +44,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>231.00</t>
+  </si>
+  <si>
+    <t>231.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
     <t>7.6800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -74,9 +98,6 @@
     <t>13.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>COBAL F 500/200MCG 30 F.C. TAB</t>
   </si>
   <si>
@@ -113,6 +134,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -143,9 +173,6 @@
     <t>NAPIZOLE 40MG 14CAP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -155,6 +182,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>PLETAAL 50MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -212,7 +248,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 12:44 PM</t>
+    <t>Tuesday, 17 June, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -919,7 +955,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -929,11 +965,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -945,14 +981,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -969,7 +1005,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1002,7 +1038,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1011,14 +1047,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1028,14 +1064,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1044,14 +1080,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1068,7 +1104,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1077,14 +1113,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1094,11 +1130,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1110,28 +1146,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1143,14 +1179,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1160,14 +1196,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1176,14 +1212,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,14 +1229,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1209,31 +1245,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1242,31 +1278,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1275,66 +1311,198 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>66</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>67</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>412.97500000000002</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>67</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>68</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>69</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>70</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>54</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>73</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>66</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>54</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>754.32500000000005</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>79</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>80</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>81</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1413,10 +1581,30 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -98,12 +98,30 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>COBAL F 500/200MCG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -125,9 +143,6 @@
     <t>7:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -152,6 +167,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -197,9 +221,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -233,9 +254,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>6:0</t>
   </si>
   <si>
@@ -248,7 +266,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 12:46 PM</t>
+    <t>Tuesday, 17 June, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1039,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1031,11 +1049,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1047,14 +1065,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1087,7 +1105,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1097,14 +1115,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1113,14 +1131,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1130,11 +1148,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1146,14 +1164,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1163,14 +1181,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1179,14 +1197,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1196,11 +1214,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1212,14 +1230,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1229,14 +1247,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1245,31 +1263,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1278,14 +1296,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,11 +1313,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1311,14 +1329,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,14 +1346,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,28 +1362,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1377,7 +1395,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1394,11 +1412,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1410,31 +1428,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1443,66 +1461,165 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>754.32500000000005</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>79</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>18</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>62</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>80</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>81</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>73</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>62</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>83</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>809.32500000000005</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>85</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>86</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>87</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1601,10 +1718,25 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -104,156 +104,159 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PLETAAL 50MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PLETAAL 50MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VONSECA 20MG 14 TAB</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>6:0</t>
   </si>
   <si>
@@ -266,7 +269,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 12:49 PM</t>
+    <t>Tuesday, 17 June, 2025 12:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1039,7 +1042,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1056,7 +1059,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1548,10 +1551,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1560,7 +1563,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1577,11 +1580,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1589,13 +1592,13 @@
     </row>
     <row r="28" ht="24.75" customHeight="1">
       <c r="P28" s="13">
-        <v>809.32500000000005</v>
+        <v>821.32500000000005</v>
       </c>
       <c r="Q28" s="13"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c t="s" r="A29" s="14">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1603,13 +1606,13 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c t="s" r="G29" s="15">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="16"/>
       <c t="s" r="K29" s="17">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 12:52 PM</t>
+    <t>Tuesday, 17 June, 2025 1:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -158,6 +170,12 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -206,6 +224,21 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>PLETAAL 50MG 20 TAB.</t>
   </si>
   <si>
@@ -224,9 +257,6 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -239,6 +269,9 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
@@ -269,7 +302,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 1:04 PM</t>
+    <t>Tuesday, 17 June, 2025 1:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1207,7 +1240,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1217,14 +1250,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1233,7 +1266,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1250,14 +1283,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1266,14 +1299,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1283,14 +1316,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1306,7 +1339,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1323,7 +1356,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1339,7 +1372,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1372,24 +1405,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1398,14 +1431,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1415,11 +1448,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1431,31 +1464,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1464,14 +1497,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1481,11 +1514,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1497,14 +1530,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1514,14 +1547,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1530,31 +1563,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1563,66 +1596,231 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>83</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>84</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>85</v>
       </c>
-      <c t="s" r="Q27" s="12">
+      <c t="s" r="Q28" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>821.32500000000005</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>86</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>56</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>87</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>16</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>88</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>90</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>18</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>68</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>91</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>94</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>83</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>68</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>95</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>993.32500000000005</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>97</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>98</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>99</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1736,10 +1934,35 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -287,10 +287,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>22.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
@@ -302,7 +299,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 1:05 PM</t>
+    <t>Tuesday, 17 June, 2025 1:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1752,7 +1749,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1761,7 +1758,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1778,11 +1775,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1790,13 +1787,13 @@
     </row>
     <row r="33" ht="24.75" customHeight="1">
       <c r="P33" s="13">
-        <v>993.32500000000005</v>
+        <v>1003.3250000000001</v>
       </c>
       <c r="Q33" s="13"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c t="s" r="A34" s="14">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1804,13 +1801,13 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c t="s" r="G34" s="15">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="16"/>
       <c t="s" r="K34" s="17">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -194,6 +203,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -227,9 +245,6 @@
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -248,6 +263,24 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -299,7 +332,13 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 1:06 PM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 17 June, 2025 1:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1303,7 +1342,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1313,11 +1352,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1329,14 +1368,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1346,11 +1385,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1386,7 +1425,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1402,7 +1441,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1435,7 +1474,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1468,24 +1507,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1494,14 +1533,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1511,14 +1550,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1534,21 +1573,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1560,14 +1599,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1577,14 +1616,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1593,14 +1632,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1610,14 +1649,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1626,14 +1665,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1643,14 +1682,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1659,7 +1698,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1676,11 +1715,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1699,7 +1738,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1716,7 +1755,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1732,24 +1771,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1765,59 +1804,224 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1003.3250000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>96</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>97</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>18</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>59</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>98</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>16</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>99</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>101</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>18</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>74</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>102</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>104</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>94</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>74</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>105</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>107</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>108</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>74</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>105</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1244.3250000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>109</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>110</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>111</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1956,10 +2160,35 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BUSCOPAN 10MG 20 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -161,6 +170,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -287,9 +305,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -338,7 +353,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 1:31 PM</t>
+    <t>Tuesday, 17 June, 2025 2:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,7 +1093,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1088,11 +1103,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1104,14 +1119,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1144,7 +1159,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1154,14 +1169,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1170,14 +1185,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1210,7 +1225,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1243,7 +1258,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1253,14 +1268,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1269,14 +1284,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1286,14 +1301,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1302,14 +1317,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1326,7 +1341,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1352,7 +1367,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1375,7 +1390,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1389,10 +1404,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1401,14 +1416,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1418,11 +1433,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1434,14 +1449,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1451,14 +1466,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1474,7 +1489,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1491,7 +1506,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1507,7 +1522,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1540,7 +1555,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1573,24 +1588,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1599,14 +1614,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1616,14 +1631,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1632,28 +1647,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1665,14 +1680,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1682,14 +1697,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1705,7 +1720,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1738,7 +1753,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1755,7 +1770,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1771,7 +1786,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1781,14 +1796,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1804,7 +1819,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1814,11 +1829,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1830,14 +1845,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1847,14 +1862,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1870,7 +1885,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1880,14 +1895,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1896,7 +1911,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1909,18 +1924,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1929,31 +1944,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1962,66 +1977,132 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1244.3250000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>109</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>99</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>80</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>110</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>111</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>112</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>113</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>80</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>110</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1329.8250000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>114</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>115</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>116</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2185,10 +2266,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -281,15 +281,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
     <t>TRITOSPOT CREAM 15 GM</t>
   </si>
   <si>
@@ -353,7 +356,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 2:10 PM</t>
+    <t>Tuesday, 17 June, 2025 3:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1792,7 +1795,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1819,7 +1822,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1829,11 +1832,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1845,14 +1848,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1862,14 +1865,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1878,14 +1881,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1895,14 +1898,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1911,14 +1914,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1928,11 +1931,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1951,7 +1954,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1961,14 +1964,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1977,31 +1980,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2010,14 +2013,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2027,14 +2030,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2043,14 +2046,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2060,49 +2063,82 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>113</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>114</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>80</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>111</v>
       </c>
-      <c t="s" r="Q39" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1329.8250000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>114</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1449.8250000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
         <v>115</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
         <v>116</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>117</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2276,10 +2312,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -356,7 +365,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 3:19 PM</t>
+    <t>Tuesday, 17 June, 2025 3:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1822,7 +1831,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1832,14 +1841,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1865,11 +1874,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1888,7 +1897,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1898,14 +1907,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1964,11 +1973,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2020,13 +2029,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2037,7 +2046,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2053,7 +2062,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2070,7 +2079,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2086,7 +2095,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2096,49 +2105,82 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1449.8250000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>116</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>117</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>80</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>114</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>115</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>116</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>117</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1525.7249999999999</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>118</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>119</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>120</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2317,10 +2359,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -146,102 +158,120 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>23.7600</t>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -341,22 +371,55 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
@@ -365,7 +428,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 3:20 PM</t>
+    <t>Tuesday, 17 June, 2025 3:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1072,7 +1135,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1082,11 +1145,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1098,14 +1161,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1115,14 +1178,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1131,14 +1194,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1171,7 +1234,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1181,11 +1244,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1197,14 +1260,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1221,7 +1284,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1237,7 +1300,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1247,11 +1310,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1263,14 +1326,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1280,11 +1343,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1296,14 +1359,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1313,14 +1376,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1336,7 +1399,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1346,14 +1409,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1362,14 +1425,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1379,14 +1442,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>55</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1402,7 +1465,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1416,7 +1479,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1428,14 +1491,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1445,7 +1508,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1468,7 +1531,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1478,11 +1541,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1494,7 +1557,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1511,14 +1574,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1527,14 +1590,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1544,14 +1607,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1560,14 +1623,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1577,14 +1640,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1600,7 +1663,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1617,7 +1680,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1633,7 +1696,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1666,24 +1729,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1692,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1709,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,14 +1788,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,14 +1805,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1758,31 +1821,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,28 +1854,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1824,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,14 +1937,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,28 +1953,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1923,14 +1986,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1940,14 +2003,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,14 +2019,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1973,11 +2036,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -1989,14 +2052,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2006,11 +2069,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2022,14 +2085,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2039,14 +2102,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2055,31 +2118,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2088,28 +2151,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2121,66 +2184,330 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1525.7249999999999</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>118</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>119</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>120</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>111</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>13</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>121</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>123</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>124</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>90</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>125</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>127</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>18</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>90</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>128</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>129</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>18</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>90</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>130</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>132</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>113</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>90</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>125</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>133</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>18</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>90</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>134</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>136</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>111</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>90</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>37</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>137</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>138</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>90</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>125</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1754.75</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>139</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>140</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>141</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2364,10 +2691,50 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -293,6 +302,18 @@
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -305,9 +326,6 @@
     <t>PLETAAL 50MG 20 TAB.</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
@@ -428,7 +446,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 3:23 PM</t>
+    <t>Tuesday, 17 June, 2025 3:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1795,7 +1813,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,11 +1823,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1821,31 +1839,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,28 +1872,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,11 +1922,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1927,7 +1945,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,14 +1955,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,28 +1971,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1986,14 +2004,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,7 +2021,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2032,15 +2050,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2052,14 +2070,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,14 +2087,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2085,14 +2103,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,14 +2136,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2158,7 +2176,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2168,14 +2186,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2201,14 +2219,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,14 +2235,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2234,11 +2252,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2257,24 +2275,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,31 +2301,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2323,21 +2341,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2349,31 +2367,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2382,7 +2400,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2395,15 +2413,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2415,28 +2433,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2448,66 +2466,132 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1754.75</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>139</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>140</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>141</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>142</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>117</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>93</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>37</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>143</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>144</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>93</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>131</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1876.75</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>145</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>146</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>147</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2731,10 +2815,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -230,154 +230,151 @@
     <t>18.00</t>
   </si>
   <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PLETAAL 50MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PLETAAL 50MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PLEX BEAUTY HAIR CREAM</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>TRITOSPOT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
     <t>VONSECA 20MG 14 TAB</t>
@@ -1698,7 +1695,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1714,7 +1711,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1780,7 +1777,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1813,7 +1810,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1823,11 +1820,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1839,31 +1836,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1872,28 +1869,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1905,14 +1902,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1922,11 +1919,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1938,14 +1935,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1978,7 +1975,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,14 +1985,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2004,31 +2001,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2044,13 +2041,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2061,7 +2058,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2077,7 +2074,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2087,14 +2084,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2103,14 +2100,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2120,11 +2117,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2143,7 +2140,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2153,14 +2150,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2169,14 +2166,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2186,14 +2183,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2202,14 +2199,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2242,7 +2239,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2252,14 +2249,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2268,14 +2265,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2285,14 +2282,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2301,28 +2298,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2334,31 +2331,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2367,7 +2364,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2380,18 +2377,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2400,28 +2397,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2440,21 +2437,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2466,28 +2463,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2506,92 +2503,59 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="A51" s="7">
-        <v>45</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c t="s" r="C51" s="8">
-        <v>143</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c t="s" r="H51" s="9">
+      <c r="P51" s="13">
+        <v>1841.75</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
         <v>144</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c t="s" r="L51" s="10">
-        <v>93</v>
-      </c>
-      <c r="M51" s="10"/>
-      <c t="s" r="N51" s="8">
-        <v>131</v>
-      </c>
-      <c r="O51" s="8"/>
-      <c t="s" r="P51" s="11">
-        <v>132</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1876.75</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
         <v>145</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
         <v>146</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>147</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2820,15 +2784,10 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>37.5000</t>
   </si>
   <si>
+    <t>CEFOZON 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -353,9 +362,6 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -413,13 +419,19 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
@@ -437,13 +449,16 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 3:24 PM</t>
+    <t>Tuesday, 17 June, 2025 3:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1259,14 +1274,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1282,7 +1297,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1292,11 +1307,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1308,14 +1323,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1332,7 +1347,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1348,7 +1363,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1358,11 +1373,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1374,14 +1389,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1391,11 +1406,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1407,14 +1422,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1424,11 +1439,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1440,14 +1455,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,14 +1472,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1480,7 +1495,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1490,14 +1505,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1506,14 +1521,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1523,14 +1538,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1556,11 +1571,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1572,14 +1587,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1589,14 +1604,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1605,14 +1620,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1622,14 +1637,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1655,11 +1670,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1671,14 +1686,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1688,14 +1703,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1711,7 +1726,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1744,7 +1759,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1777,7 +1792,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1810,7 +1825,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1820,11 +1835,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1836,31 +1851,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1869,28 +1884,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1919,11 +1934,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1975,7 +1990,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2001,31 +2016,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2041,13 +2056,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2058,7 +2073,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2074,7 +2089,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2084,14 +2099,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2100,14 +2115,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2117,11 +2132,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2140,7 +2155,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2150,14 +2165,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2216,11 +2231,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2298,28 +2313,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2331,31 +2346,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2377,7 +2392,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2385,10 +2400,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>136</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2404,24 +2419,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2430,28 +2445,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2463,28 +2478,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2496,66 +2511,132 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1841.75</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>144</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>145</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>146</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>21</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>93</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>122</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>147</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>148</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>93</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>132</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2031.75</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>149</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>150</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>151</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2784,10 +2865,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -458,7 +458,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 3:25 PM</t>
+    <t>Tuesday, 17 June, 2025 3:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -110,258 +110,258 @@
     <t>CEFOZON 1 GM VIAL</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>144.0000</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PLETAAL 50MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PLETAAL 50MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PLEX BEAUTY HAIR CREAM</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>TRITOSPOT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -431,9 +431,6 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
@@ -458,7 +455,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 3:28 PM</t>
+    <t>Tuesday, 17 June, 2025 3:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1281,7 +1278,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1290,14 +1287,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1307,11 +1304,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1323,14 +1320,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1340,11 +1337,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1356,14 +1353,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1373,11 +1370,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1389,14 +1386,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1406,11 +1403,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1422,14 +1419,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1439,11 +1436,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1455,7 +1452,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1472,11 +1469,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1488,14 +1485,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1505,14 +1502,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1521,7 +1518,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1538,11 +1535,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1554,14 +1551,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1571,11 +1568,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1587,14 +1584,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1608,7 +1605,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1620,7 +1617,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1637,11 +1634,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1653,14 +1650,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1670,11 +1667,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1686,7 +1683,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1703,11 +1700,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1719,7 +1716,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1736,11 +1733,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1752,14 +1749,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1769,11 +1766,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1785,14 +1782,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1802,11 +1799,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1818,7 +1815,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1835,11 +1832,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1851,14 +1848,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1868,11 +1865,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1884,7 +1881,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1897,15 +1894,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1917,14 +1914,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1934,11 +1931,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1950,14 +1947,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1967,11 +1964,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1983,7 +1980,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2000,11 +1997,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2016,7 +2013,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2033,11 +2030,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2049,7 +2046,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2062,15 +2059,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2082,14 +2079,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2099,11 +2096,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2115,7 +2112,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2132,11 +2129,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2148,7 +2145,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2165,11 +2162,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2181,14 +2178,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2198,14 +2195,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2320,7 +2317,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2359,7 +2356,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2392,7 +2389,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2425,7 +2422,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2436,7 +2433,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>140</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2445,7 +2442,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2458,7 +2455,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2478,7 +2475,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2491,15 +2488,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2511,28 +2508,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2544,7 +2541,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2557,7 +2554,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2577,20 +2574,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2606,13 +2603,13 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="P53" s="13">
-        <v>2031.75</v>
+        <v>1935.75</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c t="s" r="A54" s="14">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2620,13 +2617,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c t="s" r="G54" s="15">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
       <c t="s" r="K54" s="17">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -134,171 +134,192 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -428,9 +449,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
@@ -455,7 +473,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 3:32 PM</t>
+    <t>Tuesday, 17 June, 2025 4:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1344,7 +1362,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1591,7 +1609,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1601,14 +1619,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1617,14 +1635,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1634,14 +1652,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1657,7 +1675,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1667,14 +1685,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1690,7 +1708,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1700,14 +1718,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1733,14 +1751,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1749,14 +1767,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1766,14 +1784,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1789,7 +1807,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1822,7 +1840,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1855,7 +1873,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1865,11 +1883,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1881,31 +1899,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1914,14 +1932,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1931,14 +1949,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,28 +1965,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1980,14 +1998,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1997,7 +2015,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2020,7 +2038,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2030,14 +2048,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2046,28 +2064,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2079,14 +2097,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2096,11 +2114,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2112,7 +2130,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2125,15 +2143,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2145,14 +2163,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2162,14 +2180,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,14 +2196,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2195,14 +2213,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2211,14 +2229,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2228,11 +2246,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2244,14 +2262,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2261,14 +2279,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2284,7 +2302,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,14 +2312,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,14 +2328,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2327,11 +2345,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2343,20 +2361,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2367,7 +2385,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2383,13 +2401,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2397,10 +2415,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2416,24 +2434,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2442,31 +2460,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2475,7 +2493,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2488,18 +2506,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2508,28 +2526,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2541,28 +2559,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2574,66 +2592,132 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>1935.75</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>148</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>149</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>150</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>151</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>21</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>98</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>129</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>152</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>153</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>98</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>139</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>1993.5899999999999</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>154</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>155</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>156</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2872,10 +2956,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
@@ -221,6 +233,9 @@
     <t>4:1</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -314,6 +329,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -356,6 +383,9 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
     <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
   </si>
   <si>
@@ -440,7 +470,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -473,7 +506,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 4:13 PM</t>
+    <t>Tuesday, 17 June, 2025 4:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1164,7 +1197,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1173,14 +1206,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1190,14 +1223,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1213,7 +1246,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1223,11 +1256,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1239,14 +1272,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1256,14 +1289,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1272,14 +1305,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1289,14 +1322,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1305,14 +1338,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1322,14 +1355,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1345,7 +1378,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1355,14 +1388,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1371,14 +1404,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1411,7 +1444,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1421,11 +1454,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1437,14 +1470,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1454,11 +1487,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1470,14 +1503,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1487,11 +1520,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1503,14 +1536,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1520,14 +1553,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1543,7 +1576,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1553,14 +1586,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1569,14 +1602,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1586,14 +1619,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1609,7 +1642,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1619,14 +1652,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1635,14 +1668,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1652,14 +1685,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1668,14 +1701,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1685,14 +1718,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1701,14 +1734,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1718,11 +1751,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1734,14 +1767,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1751,14 +1784,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1767,14 +1800,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1784,14 +1817,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1807,7 +1840,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1817,14 +1850,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1840,7 +1873,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1854,10 +1887,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1866,14 +1899,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1883,11 +1916,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1899,14 +1932,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1916,11 +1949,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1932,14 +1965,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1949,11 +1982,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1965,31 +1998,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1998,14 +2031,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2015,14 +2048,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2031,31 +2064,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2064,14 +2097,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2088,7 +2121,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2104,7 +2137,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2114,14 +2147,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2137,24 +2170,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2163,14 +2196,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2180,14 +2213,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2196,14 +2229,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2213,14 +2246,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2229,31 +2262,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2262,31 +2295,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,14 +2328,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2319,7 +2352,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2335,7 +2368,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2345,14 +2378,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2361,14 +2394,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2378,14 +2411,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2394,14 +2427,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2411,14 +2444,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2427,31 +2460,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2460,31 +2493,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>143</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2493,31 +2526,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2526,31 +2559,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2566,24 +2599,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2592,31 +2625,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2625,31 +2658,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2658,66 +2691,198 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>158</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>22</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>103</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>159</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>161</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>133</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>103</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>44</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>162</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>25</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>103</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>139</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>140</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>1993.5899999999999</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>154</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>155</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>156</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q57" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>163</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>164</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>103</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>149</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2214.96</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>165</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>166</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>167</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2966,10 +3131,30 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -506,7 +506,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 4:46 PM</t>
+    <t>Tuesday, 17 June, 2025 5:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -191,154 +191,175 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>35.6400</t>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
   </si>
   <si>
     <t>ORACURE ORAL GEL 30 GM</t>
@@ -452,6 +473,27 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان كوبي </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>جل صبار انوفا</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -464,27 +506,39 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -494,6 +548,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كريم شعر ايفا 85مل </t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>مبرد اظافر</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -506,7 +569,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 5:19 PM</t>
+    <t>Tuesday, 17 June, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1593,7 +1656,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1602,7 +1665,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1619,7 +1682,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1635,14 +1698,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1652,11 +1715,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1668,7 +1731,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1685,11 +1748,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1701,14 +1764,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1734,31 +1797,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1767,14 +1830,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1784,11 +1847,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1807,7 +1870,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1817,7 +1880,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1850,14 +1913,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1873,7 +1936,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1883,11 +1946,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1899,14 +1962,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1916,14 +1979,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1939,7 +2002,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2005,7 +2068,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2038,7 +2101,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2048,11 +2111,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2064,31 +2127,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2097,31 +2160,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2130,14 +2193,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2147,14 +2210,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2163,14 +2226,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2180,14 +2243,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2196,14 +2259,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2213,7 +2276,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2236,7 +2299,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2246,14 +2309,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2262,28 +2325,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2295,31 +2358,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2328,31 +2391,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2361,7 +2424,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2374,15 +2437,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2394,14 +2457,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2411,14 +2474,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2427,14 +2490,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2444,14 +2507,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2460,14 +2523,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2477,11 +2540,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2493,14 +2556,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2510,14 +2573,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2533,7 +2596,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2543,14 +2606,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2559,14 +2622,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2576,11 +2639,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2592,20 +2655,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2616,7 +2679,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2632,13 +2695,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2649,7 +2712,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>154</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2658,31 +2721,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2691,28 +2754,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2724,28 +2787,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2764,21 +2827,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2790,31 +2853,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2823,66 +2886,363 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2214.96</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>165</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>171</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>22</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>74</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>166</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>167</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>172</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>142</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>74</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>163</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>173</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>22</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>74</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>174</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>176</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>22</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>74</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>177</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>179</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>25</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>74</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>90</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>181</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>22</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>74</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>177</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>182</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>140</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>74</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>44</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>183</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>25</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>74</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>146</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>184</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>185</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>74</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>163</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2639.7199999999998</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>186</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>187</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>188</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3151,10 +3511,55 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -227,78 +227,84 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>EMPIR G CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -431,9 +437,6 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -569,7 +572,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 5:32 PM</t>
+    <t>Tuesday, 17 June, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1969,7 +1972,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1979,7 +1982,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1995,7 +1998,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2012,11 +2015,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2028,7 +2031,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2045,11 +2048,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2061,14 +2064,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,11 +2081,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2094,7 +2097,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2111,11 +2114,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2127,14 +2130,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2144,11 +2147,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2160,7 +2163,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2177,11 +2180,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2193,14 +2196,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,14 +2213,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,14 +2229,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,11 +2246,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2259,7 +2262,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2280,7 +2283,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2292,14 +2295,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,11 +2312,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2325,7 +2328,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2342,11 +2345,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2358,7 +2361,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2375,11 +2378,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2391,7 +2394,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2408,11 +2411,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2424,7 +2427,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2441,11 +2444,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2457,14 +2460,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,11 +2477,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2490,7 +2493,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2507,11 +2510,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2523,7 +2526,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2540,11 +2543,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2556,14 +2559,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2589,14 +2592,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,11 +2609,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2622,7 +2625,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2639,11 +2642,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2655,7 +2658,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2672,11 +2675,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2688,14 +2691,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2705,11 +2708,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2721,7 +2724,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2738,11 +2741,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2754,7 +2757,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2771,11 +2774,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2787,14 +2790,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2804,11 +2807,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2820,14 +2823,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2837,11 +2840,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2853,7 +2856,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2870,11 +2873,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>85</v>
@@ -2886,7 +2889,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2903,14 +2906,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2919,7 +2922,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2936,7 +2939,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -2952,14 +2955,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2969,11 +2972,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -2985,7 +2988,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3002,11 +3005,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3018,7 +3021,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3035,11 +3038,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3051,7 +3054,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3068,11 +3071,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3084,7 +3087,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3101,11 +3104,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3117,14 +3120,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3138,7 +3141,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3150,7 +3153,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3167,11 +3170,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3183,14 +3186,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3200,11 +3203,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3218,7 +3221,7 @@
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c t="s" r="A69" s="14">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3226,13 +3229,13 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c t="s" r="G69" s="15">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
       <c r="J69" s="16"/>
       <c t="s" r="K69" s="17">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -518,6 +518,12 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -572,7 +578,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 5:47 PM</t>
+    <t>Tuesday, 17 June, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2896,7 +2902,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2906,14 +2912,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>171</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2922,7 +2928,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2939,14 +2945,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>37</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2955,14 +2961,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2972,14 +2978,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2988,14 +2994,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3005,11 +3011,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3021,7 +3027,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3038,11 +3044,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3054,14 +3060,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3071,7 +3077,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3094,7 +3100,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3104,11 +3110,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3120,14 +3126,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3137,11 +3143,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3153,14 +3159,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3170,11 +3176,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3203,49 +3209,82 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>187</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>188</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>74</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>164</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
         <v>165</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2639.7199999999998</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>187</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>188</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c t="s" r="Q68" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2704.7199999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
         <v>189</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>190</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>191</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3559,10 +3598,15 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -191,10 +191,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>59.4000</t>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -530,7 +533,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -578,7 +581,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 5:53 PM</t>
+    <t>Tuesday, 17 June, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1665,7 +1668,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1674,7 +1677,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1691,7 +1694,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1707,14 +1710,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1724,11 +1727,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1740,7 +1743,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1757,11 +1760,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1773,14 +1776,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1806,7 +1809,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1819,15 +1822,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1839,7 +1842,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1872,7 +1875,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1889,11 +1892,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1905,14 +1908,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1926,7 +1929,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1938,14 +1941,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1959,7 +1962,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1971,14 +1974,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1988,7 +1991,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2004,7 +2007,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2021,11 +2024,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2037,7 +2040,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2054,11 +2057,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2070,14 +2073,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2087,11 +2090,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2103,7 +2106,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2120,11 +2123,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2136,14 +2139,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2153,11 +2156,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2169,7 +2172,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2182,15 +2185,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2202,14 +2205,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2219,14 +2222,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2235,14 +2238,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2252,11 +2255,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2268,14 +2271,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2289,7 +2292,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2301,14 +2304,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2318,11 +2321,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2334,7 +2337,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2351,11 +2354,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2367,7 +2370,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2384,11 +2387,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2400,7 +2403,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2413,15 +2416,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2433,7 +2436,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2446,15 +2449,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2466,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,11 +2486,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2499,7 +2502,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2516,11 +2519,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2532,7 +2535,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2549,11 +2552,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2565,14 +2568,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2589,7 +2592,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2615,11 +2618,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2631,7 +2634,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2648,11 +2651,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2664,7 +2667,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2681,11 +2684,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2714,11 +2717,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2730,7 +2733,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2743,15 +2746,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2763,7 +2766,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2776,15 +2779,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2796,28 +2799,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2829,28 +2832,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2862,7 +2865,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2875,18 +2878,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,28 +2898,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -2928,7 +2931,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2941,18 +2944,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2961,7 +2964,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2974,11 +2977,11 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -2994,28 +2997,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3027,7 +3030,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3040,15 +3043,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3060,7 +3063,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3073,15 +3076,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3093,7 +3096,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3106,15 +3109,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3126,7 +3129,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3139,15 +3142,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3159,20 +3162,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3180,7 +3183,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3192,7 +3195,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3205,15 +3208,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3225,28 +3228,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3254,13 +3257,13 @@
     </row>
     <row r="69" ht="25.5" customHeight="1">
       <c r="P69" s="13">
-        <v>2704.7199999999998</v>
+        <v>2718.5999999999999</v>
       </c>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c t="s" r="A70" s="14">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3268,13 +3271,13 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c t="s" r="G70" s="15">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="16"/>
       <c t="s" r="K70" s="17">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -62,18 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
@@ -233,6 +239,18 @@
     <t>9:1</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>EMPIR G CAPS</t>
   </si>
   <si>
@@ -266,12 +284,21 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -326,9 +353,6 @@
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -377,6 +401,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -443,15 +479,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -581,7 +608,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 5:55 PM</t>
+    <t>Tuesday, 17 June, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1255,7 +1282,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1265,14 +1292,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1298,14 +1325,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1314,14 +1341,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1331,14 +1358,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1347,14 +1374,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1364,11 +1391,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1380,14 +1407,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1397,14 +1424,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1413,14 +1440,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1430,14 +1457,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1446,14 +1473,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1463,14 +1490,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1479,14 +1506,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1496,14 +1523,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1512,14 +1539,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1529,11 +1556,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1545,14 +1572,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1562,11 +1589,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1578,14 +1605,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1595,11 +1622,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1628,11 +1655,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1644,14 +1671,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1661,14 +1688,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1694,14 +1721,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1717,7 +1744,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1727,14 +1754,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1743,14 +1770,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1760,14 +1787,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1776,14 +1803,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1793,14 +1820,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1816,24 +1843,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1842,14 +1869,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1859,14 +1886,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1875,31 +1902,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1908,14 +1935,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1925,11 +1952,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1948,7 +1975,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2014,7 +2041,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2024,14 +2051,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2040,14 +2067,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2057,14 +2084,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2094,10 +2121,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2106,14 +2133,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2123,11 +2150,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2156,11 +2183,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2172,31 +2199,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2205,14 +2232,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2222,14 +2249,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2238,14 +2265,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2255,11 +2282,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2271,31 +2298,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2304,14 +2331,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2321,14 +2348,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2337,14 +2364,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2370,14 +2397,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2387,14 +2414,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2403,20 +2430,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2427,7 +2454,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2443,24 +2470,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2486,14 +2513,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2502,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,14 +2546,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2535,31 +2562,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2568,31 +2595,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,14 +2678,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2667,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,14 +2711,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2700,14 +2727,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2733,31 +2760,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2766,31 +2793,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2799,31 +2826,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2832,31 +2859,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2865,31 +2892,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2898,31 +2925,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2931,31 +2958,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>174</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2964,31 +2991,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3004,24 +3031,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3030,31 +3057,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3063,31 +3090,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3096,31 +3123,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3136,24 +3163,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3169,24 +3196,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3195,31 +3222,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3228,66 +3255,198 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2718.5999999999999</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>194</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>24</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>81</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>190</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>191</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>192</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c t="s" r="Q69" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>195</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>98</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>81</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>46</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>196</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>27</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>81</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>157</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>197</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>198</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>81</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>174</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>2826.3400000000001</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>199</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>200</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>201</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3606,10 +3765,30 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -449,6 +449,24 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>ROYAL ZAD</t>
   </si>
   <si>
@@ -548,6 +566,12 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>حمام كريم فاتيكا 900 جم</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -608,7 +632,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 6:33 PM</t>
+    <t>Tuesday, 17 June, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,7 +2626,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2612,14 +2636,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2628,14 +2652,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,11 +2669,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2661,7 +2685,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2674,7 +2698,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2694,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2727,14 +2751,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,14 +2768,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2760,14 +2784,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,11 +2801,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>27</v>
@@ -2793,14 +2817,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,14 +2834,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,14 +2850,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2843,14 +2867,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2866,7 +2890,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2899,13 +2923,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2913,10 +2937,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2925,28 +2949,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -2958,14 +2982,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2975,7 +2999,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -2991,14 +3015,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3031,7 +3055,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3041,14 +3065,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3057,14 +3081,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3074,11 +3098,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3090,7 +3114,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3107,14 +3131,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>183</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3123,14 +3147,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3140,14 +3164,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3173,11 +3197,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3189,7 +3213,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3206,14 +3230,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3222,7 +3246,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3239,14 +3263,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3255,14 +3279,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3272,11 +3296,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3305,11 +3329,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3321,14 +3345,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3338,11 +3362,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3354,7 +3378,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3404,49 +3428,148 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>2826.3400000000001</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>199</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>200</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>201</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>203</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>98</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>81</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>46</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>204</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>27</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>81</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>163</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>205</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>206</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>81</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>180</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3055.6100000000001</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>207</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>208</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>209</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3785,10 +3908,25 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -632,7 +632,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 6:46 PM</t>
+    <t>Tuesday, 17 June, 2025 6:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -224,6 +224,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>2:7</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>4.2000</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -470,6 +482,15 @@
     <t>ROYAL ZAD</t>
   </si>
   <si>
+    <t>TECNOVULA 50MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
   </si>
   <si>
@@ -494,6 +515,9 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -503,9 +527,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
@@ -632,7 +653,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 6:56 PM</t>
+    <t>Tuesday, 17 June, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1834,7 +1855,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1844,14 +1865,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1860,14 +1881,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1877,14 +1898,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1893,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1910,11 +1931,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>27</v>
@@ -1933,13 +1954,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1966,24 +1987,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1992,14 +2013,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2009,11 +2030,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2025,14 +2046,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2042,11 +2063,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2058,14 +2079,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2075,14 +2096,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2098,7 +2119,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2108,11 +2129,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>27</v>
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2141,11 +2162,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>27</v>
@@ -2157,14 +2178,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2174,14 +2195,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2190,14 +2211,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2207,11 +2228,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2263,7 +2284,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2273,11 +2294,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2289,14 +2310,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2306,11 +2327,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2322,31 +2343,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2355,20 +2376,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2379,7 +2400,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2388,14 +2409,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2405,14 +2426,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2428,7 +2449,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2438,14 +2459,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2454,14 +2475,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2471,14 +2492,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2511,7 +2532,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2527,7 +2548,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2537,11 +2558,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>27</v>
@@ -2553,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2570,14 +2591,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2586,31 +2607,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2619,31 +2640,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2652,28 +2673,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2685,31 +2706,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2718,31 +2739,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,14 +2789,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2834,14 +2855,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2900,14 +2921,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2933,14 +2954,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2949,14 +2970,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,11 +2987,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -2982,28 +3003,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3015,31 +3036,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,28 +3069,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3088,21 +3109,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3114,31 +3135,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3147,28 +3168,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3180,24 +3201,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3226,7 +3247,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3234,10 +3255,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>191</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3253,24 +3274,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3279,28 +3300,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3312,7 +3333,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3325,18 +3346,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3345,7 +3366,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3358,18 +3379,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3385,21 +3406,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3411,7 +3432,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3424,15 +3445,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3444,28 +3465,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3477,7 +3498,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3490,15 +3511,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>27</v>
@@ -3510,66 +3531,165 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3055.6100000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>207</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>208</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>209</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>210</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>102</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>85</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>46</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>211</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>27</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>85</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>171</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>212</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>213</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>85</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>187</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3132.8099999999999</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>214</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>215</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>216</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3923,10 +4043,25 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -152,465 +152,465 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>2:7</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>4.2000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PLETAAL 50MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>TECNOVULA 50MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان كوبي </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>جل صبار انوفا</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا 900 جم</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>2:7</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>4.2000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EMPIR G CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>6:6</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PLETAAL 50MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PLEX BEAUTY HAIR CREAM</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>REALCOXSTAR 90MG 14TAB</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>66.5000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>ROYAL ZAD</t>
-  </si>
-  <si>
-    <t>TECNOVULA 50MG 20 TABLETS</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>TRITOSPOT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>VONSECA 20MG 14 TAB</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان كوبي </t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>جل صبار انوفا</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا 900 جم</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 7:18 PM</t>
+    <t>Tuesday, 17 June, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1591,7 +1591,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1608,7 +1608,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2508,14 +2508,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2525,11 +2525,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2541,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2558,11 +2558,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>27</v>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2591,11 +2591,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>27</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2624,11 +2624,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2657,11 +2657,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2690,11 +2690,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2723,11 +2723,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2789,11 +2789,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2822,11 +2822,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2855,11 +2855,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2888,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2954,11 +2954,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3020,11 +3020,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3053,11 +3053,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3086,11 +3086,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3152,11 +3152,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>27</v>
@@ -3168,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3201,14 +3201,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3251,11 +3251,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>81</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3284,11 +3284,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3300,14 +3300,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3350,14 +3350,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3383,11 +3383,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>39</v>
@@ -3416,11 +3416,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3614,11 +3614,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3647,11 +3647,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="79" ht="25.5" customHeight="1">
       <c r="P79" s="13">
-        <v>3132.8099999999999</v>
+        <v>3144.8099999999999</v>
       </c>
       <c r="Q79" s="13"/>
     </row>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>296.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -308,6 +320,24 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -398,9 +428,6 @@
     <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>160.00</t>
   </si>
   <si>
@@ -443,6 +470,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>246.0000</t>
+  </si>
+  <si>
     <t>PLETAAL 50MG 20 TAB.</t>
   </si>
   <si>
@@ -458,6 +494,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>REALCOXSTAR 90MG 14TAB</t>
   </si>
   <si>
@@ -527,9 +572,6 @@
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -569,12 +611,6 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -587,9 +623,6 @@
     <t>حمام كريم فاتيكا 900 جم</t>
   </si>
   <si>
-    <t>140.0000</t>
-  </si>
-  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -653,7 +686,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 7:19 PM</t>
+    <t>Tuesday, 17 June, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1575,7 +1608,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1591,7 +1624,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1601,11 +1634,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>27</v>
@@ -1617,14 +1650,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1641,7 +1674,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1657,7 +1690,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1667,11 +1700,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1683,14 +1716,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1700,11 +1733,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1716,14 +1749,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1733,11 +1766,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1749,14 +1782,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1766,14 +1799,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1789,7 +1822,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,14 +1832,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1815,14 +1848,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1832,14 +1865,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1872,7 +1905,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1888,7 +1921,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1898,14 +1931,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1914,14 +1947,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1931,14 +1964,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1947,14 +1980,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1964,11 +1997,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>27</v>
@@ -1987,13 +2020,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2020,24 +2053,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2046,14 +2079,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2063,11 +2096,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2079,14 +2112,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2096,11 +2129,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2112,14 +2145,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2129,14 +2162,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2152,7 +2185,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2162,11 +2195,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>27</v>
@@ -2178,14 +2211,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2195,11 +2228,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>27</v>
@@ -2211,14 +2244,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2228,14 +2261,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2244,14 +2277,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2261,14 +2294,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2277,14 +2310,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2294,14 +2327,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2317,7 +2350,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2350,7 +2383,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2383,24 +2416,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2409,14 +2442,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2433,7 +2466,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2442,14 +2475,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2459,11 +2492,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2475,28 +2508,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2532,7 +2565,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2541,14 +2574,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2565,7 +2598,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2581,7 +2614,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,11 +2624,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>27</v>
@@ -2607,14 +2640,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2624,7 +2657,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2647,21 +2680,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -2673,31 +2706,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2706,14 +2739,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2723,14 +2756,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2739,31 +2772,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2772,31 +2805,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2805,31 +2838,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2838,31 +2871,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2871,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2921,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,31 +2937,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2937,14 +2970,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,14 +2987,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2970,14 +3003,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2987,14 +3020,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3003,7 +3036,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3020,11 +3053,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3036,14 +3069,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3053,14 +3086,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3069,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3086,14 +3119,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3102,28 +3135,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3135,28 +3168,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>27</v>
@@ -3168,28 +3201,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3201,31 +3234,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3241,13 +3274,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3258,7 +3291,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3280,15 +3313,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3307,21 +3340,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3333,31 +3366,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>197</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3373,24 +3406,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3406,24 +3439,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3432,28 +3465,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3472,21 +3505,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3498,31 +3531,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>208</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3544,18 +3577,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3564,28 +3597,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3597,28 +3630,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3630,66 +3663,231 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3144.8099999999999</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>214</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>215</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>218</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>27</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>89</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>115</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>220</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>24</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>89</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>216</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>221</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>112</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>89</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>50</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>222</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>27</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>89</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>185</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>223</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>224</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>89</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>104</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3897.8099999999999</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>225</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>226</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>227</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4058,10 +4256,35 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -686,7 +686,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 7:21 PM</t>
+    <t>Tuesday, 17 June, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -686,7 +686,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 7:23 PM</t>
+    <t>Tuesday, 17 June, 2025 7:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -239,13 +239,13 @@
     <t>DIASMECT 3GM 10 SACHETS</t>
   </si>
   <si>
-    <t>2:7</t>
+    <t>2:5</t>
   </si>
   <si>
     <t>21.00</t>
   </si>
   <si>
-    <t>4.2000</t>
+    <t>8.4000</t>
   </si>
   <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
@@ -299,270 +299,282 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>3.8400</t>
+    <t>6:5</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:6</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>26.00</t>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>246.0000</t>
+  </si>
+  <si>
+    <t>PLETAAL 50MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>TECNOVULA 50MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>26.0000</t>
   </si>
   <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>6:6</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>246.0000</t>
-  </si>
-  <si>
-    <t>PLETAAL 50MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PLEX BEAUTY HAIR CREAM</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>REALCOXSTAR 90MG 14TAB</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>66.5000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>ROYAL ZAD</t>
-  </si>
-  <si>
-    <t>TECNOVULA 50MG 20 TABLETS</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>TRITOSPOT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -620,6 +632,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
     <t>حمام كريم فاتيكا 900 جم</t>
   </si>
   <si>
@@ -671,6 +692,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
@@ -686,7 +713,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 7:25 PM</t>
+    <t>Tuesday, 17 June, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1938,7 +1965,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2162,14 +2189,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2178,14 +2205,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2195,14 +2222,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2228,14 +2255,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2251,7 +2278,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2261,11 +2288,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>27</v>
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2294,11 +2321,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>27</v>
@@ -2310,14 +2337,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2327,11 +2354,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>27</v>
@@ -2343,14 +2370,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2360,14 +2387,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2376,14 +2403,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2393,11 +2420,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2409,14 +2436,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2426,11 +2453,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2442,14 +2469,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2482,7 +2509,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2515,13 +2542,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2532,7 +2559,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2548,24 +2575,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2574,14 +2601,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2591,14 +2618,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2614,7 +2641,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2624,14 +2651,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2640,14 +2667,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2657,14 +2684,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2673,14 +2700,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2690,14 +2717,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2706,14 +2733,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2746,7 +2773,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2779,7 +2806,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2789,14 +2816,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2805,31 +2832,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2878,7 +2905,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2895,7 +2922,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2911,13 +2938,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2944,24 +2971,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2970,31 +2997,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3010,7 +3037,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3043,7 +3070,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3053,14 +3080,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3069,14 +3096,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,11 +3113,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3109,7 +3136,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,14 +3146,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3135,14 +3162,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,14 +3179,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3168,14 +3195,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,11 +3212,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>27</v>
@@ -3201,14 +3228,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3218,11 +3245,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3234,14 +3261,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3251,14 +3278,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3267,14 +3294,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3284,14 +3311,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3300,28 +3327,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3333,7 +3360,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3350,11 +3377,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3366,14 +3393,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3383,11 +3410,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3399,14 +3426,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3416,11 +3443,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3432,14 +3459,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3449,14 +3476,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,14 +3492,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3482,14 +3509,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3498,14 +3525,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3515,11 +3542,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3531,14 +3558,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3548,14 +3575,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>208</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,14 +3591,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3581,14 +3608,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3597,14 +3624,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3614,14 +3641,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3630,7 +3657,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3647,14 +3674,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3663,14 +3690,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3680,11 +3707,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3696,14 +3723,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3713,11 +3740,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3729,7 +3756,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3746,11 +3773,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -3762,14 +3789,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3779,11 +3806,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -3795,14 +3822,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3812,11 +3839,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>27</v>
@@ -3828,14 +3855,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3845,49 +3872,148 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3897.8099999999999</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>225</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>226</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>227</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>230</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>116</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>89</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>50</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>231</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>27</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>89</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>189</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>232</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>233</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>89</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>108</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4243.5699999999997</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>234</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>235</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>236</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4281,10 +4407,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -341,6 +341,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>IMUTREXATE 2.5 MG 10 TABS.</t>
   </si>
   <si>
@@ -617,6 +626,15 @@
     <t>6:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -680,12 +698,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
@@ -713,7 +725,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 7:27 PM</t>
+    <t>Tuesday, 17 June, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2311,7 +2323,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2328,7 +2340,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2344,7 +2356,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2354,11 +2366,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>27</v>
@@ -2370,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2387,11 +2399,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2410,7 +2422,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2443,7 +2455,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2453,11 +2465,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2486,11 +2498,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2542,7 +2554,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2575,13 +2587,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2592,7 +2604,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2608,24 +2620,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2634,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2651,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>143</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2674,7 +2686,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2684,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2717,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2750,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2806,7 +2818,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2839,7 +2851,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2849,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2865,31 +2877,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2938,7 +2950,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2955,7 +2967,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2971,13 +2983,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3004,24 +3016,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3030,31 +3042,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3070,7 +3082,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3103,7 +3115,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3146,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3169,7 +3181,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3179,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3195,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3228,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3245,11 +3257,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3278,11 +3290,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3311,14 +3323,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3367,13 +3379,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3381,7 +3393,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3393,7 +3405,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3410,11 +3422,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3433,7 +3445,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3443,11 +3455,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3476,11 +3488,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3509,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3542,11 +3554,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3565,7 +3577,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3591,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3608,11 +3620,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3641,14 +3653,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>215</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3674,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3723,7 +3735,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3740,14 +3752,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3773,11 +3785,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -3796,7 +3808,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3806,11 +3818,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -3822,14 +3834,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3839,11 +3851,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>27</v>
@@ -3862,7 +3874,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3872,11 +3884,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3905,11 +3917,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3938,11 +3950,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -3954,14 +3966,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3971,49 +3983,115 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>235</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>27</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>89</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>192</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>236</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>237</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>89</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>108</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>109</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4243.5699999999997</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>234</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>235</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>236</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4310.0500000000002</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>238</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>239</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>240</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4422,10 +4500,20 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -218,6 +218,18 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -266,9 +278,6 @@
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -350,6 +359,18 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>IMUTREXATE 2.5 MG 10 TABS.</t>
   </si>
   <si>
@@ -674,7 +695,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>30:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -725,7 +749,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 8:13 PM</t>
+    <t>Tuesday, 17 June, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1894,7 +1918,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,14 +1928,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1920,14 +1944,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1937,14 +1961,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1977,7 +2001,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1993,7 +2017,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,14 +2027,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2019,14 +2043,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,14 +2060,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2052,14 +2076,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,11 +2093,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>27</v>
@@ -2092,21 +2116,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>27</v>
@@ -2118,31 +2142,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,14 +2175,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,11 +2192,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2191,7 +2215,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2217,14 +2241,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2250,14 +2274,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,14 +2291,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2283,14 +2307,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2304,10 +2328,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2340,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2340,7 +2364,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2356,7 +2380,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2373,7 +2397,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2389,7 +2413,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,11 +2423,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,11 +2456,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2489,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2505,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2522,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,14 +2538,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,11 +2555,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,7 +2588,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2587,7 +2611,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,11 +2621,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2613,31 +2637,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2670,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2670,7 +2694,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,31 +2703,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2736,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2753,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,14 +2769,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,11 +2786,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2778,14 +2802,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,11 +2819,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>27</v>
@@ -2811,14 +2835,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2835,7 +2859,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2851,7 +2875,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,11 +2885,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -2877,14 +2901,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2918,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,28 +2934,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -2943,31 +2967,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,31 +3000,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,31 +3033,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,31 +3066,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3099,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,11 +3116,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3108,31 +3132,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3182,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3215,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3248,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,11 +3281,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3273,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3314,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3327,7 +3351,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
@@ -3339,14 +3363,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,11 +3413,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3405,31 +3429,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,28 +3462,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3471,28 +3495,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3504,28 +3528,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3537,28 +3561,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3570,31 +3594,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,28 +3627,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3636,31 +3660,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,28 +3693,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3702,31 +3726,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>221</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,31 +3759,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,31 +3792,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3801,7 +3825,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3814,18 +3838,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,28 +3858,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>27</v>
@@ -3867,28 +3891,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -3900,28 +3924,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -3933,28 +3957,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -3966,28 +3990,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>27</v>
@@ -3999,28 +4023,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>27</v>
@@ -4032,66 +4056,132 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4310.0500000000002</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>238</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>239</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>240</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>243</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>27</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>92</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>199</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>244</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>245</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>92</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>111</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4547.0500000000002</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>246</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>247</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>248</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4510,10 +4600,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -695,10 +695,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>30:0</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -749,7 +749,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 8:16 PM</t>
+    <t>Tuesday, 17 June, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="91" ht="25.5" customHeight="1">
       <c r="P91" s="13">
-        <v>4547.0500000000002</v>
+        <v>4529.0500000000002</v>
       </c>
       <c r="Q91" s="13"/>
     </row>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -323,13 +323,10 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:5</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:6</t>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>35.7600</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
@@ -563,6 +560,9 @@
     <t>ROYAL ZAD</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
     <t>TECNOVULA 50MG 20 TABLETS</t>
   </si>
   <si>
@@ -695,10 +695,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -749,7 +749,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 8:19 PM</t>
+    <t>Tuesday, 17 June, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2298,7 +2298,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2340,14 +2340,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,11 +2357,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>27</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2390,11 +2390,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2406,14 +2406,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2423,11 +2423,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2456,11 +2456,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>27</v>
@@ -2505,14 +2505,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2555,11 +2555,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2604,14 +2604,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,11 +2621,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2687,11 +2687,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>27</v>
@@ -2736,14 +2736,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2753,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>149</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>150</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2786,11 +2786,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2835,14 +2835,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,11 +2852,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2868,14 +2868,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2918,11 +2918,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>27</v>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2951,11 +2951,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3017,11 +3017,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3050,11 +3050,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3083,11 +3083,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3116,11 +3116,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3165,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3198,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,11 +3215,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3231,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3248,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,11 +3281,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3297,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3314,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,14 +3347,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3363,14 +3363,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3396,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3429,14 +3429,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3446,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,14 +3462,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3479,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,28 +3495,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3545,11 +3545,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3561,14 +3561,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,11 +3578,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3594,14 +3594,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3611,11 +3611,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>27</v>
@@ -3627,14 +3627,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3644,11 +3644,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3660,14 +3660,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3677,14 +3677,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3710,14 +3710,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,14 +3726,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3759,14 +3759,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3776,11 +3776,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3792,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3809,14 +3809,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>229</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3842,14 +3842,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>39</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,14 +3858,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3875,14 +3875,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3891,14 +3891,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3908,11 +3908,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3941,11 +3941,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -3957,14 +3957,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3974,11 +3974,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -3990,14 +3990,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4007,11 +4007,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>27</v>
@@ -4023,14 +4023,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>27</v>
@@ -4056,14 +4056,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4073,11 +4073,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
@@ -4089,14 +4089,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4106,11 +4106,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>27</v>
@@ -4122,14 +4122,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4139,49 +4139,82 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4529.0500000000002</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>244</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>245</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>92</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>110</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4555.9200000000001</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
         <v>246</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
         <v>247</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
         <v>248</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4610,10 +4643,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>37.5000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CEFOZON 1 GM VIAL</t>
   </si>
   <si>
@@ -170,9 +182,6 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -188,6 +197,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -230,6 +248,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -377,6 +404,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -395,12 +431,6 @@
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
@@ -479,9 +509,6 @@
     <t>6:6</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>4.0000</t>
   </si>
   <si>
@@ -524,9 +551,6 @@
     <t>PLEX BEAUTY HAIR CREAM</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>120.0000</t>
   </si>
   <si>
@@ -683,6 +707,12 @@
     <t>حمام كريم فاتيكا 900 جم</t>
   </si>
   <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -704,9 +734,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
@@ -749,7 +776,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 8:24 PM</t>
+    <t>Tuesday, 17 June, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1631,14 +1658,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1647,14 +1674,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1664,14 +1691,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1704,7 +1731,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1720,7 +1747,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1730,11 +1757,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>27</v>
@@ -1746,14 +1773,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1770,7 +1797,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1786,7 +1813,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1819,7 +1846,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1852,7 +1879,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1885,7 +1912,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1895,14 +1922,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1911,14 +1938,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1928,14 +1955,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1944,14 +1971,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1961,14 +1988,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2027,14 +2054,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2043,14 +2070,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2060,11 +2087,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2076,14 +2103,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,11 +2120,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>27</v>
@@ -2116,7 +2143,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2126,14 +2153,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2142,20 +2169,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2166,7 +2193,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2182,7 +2209,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,14 +2219,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2208,14 +2235,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2252,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2241,31 +2268,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2274,14 +2301,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,14 +2318,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2307,14 +2334,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2324,14 +2351,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2364,7 +2391,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2380,7 +2407,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,14 +2417,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2413,7 +2440,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2423,14 +2450,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2439,14 +2466,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,11 +2483,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2472,14 +2499,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2526,7 +2553,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>27</v>
@@ -2538,14 +2565,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,14 +2598,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2588,14 +2615,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2604,14 +2631,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,14 +2648,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2644,7 +2671,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,14 +2681,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2677,7 +2704,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,11 +2714,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2703,31 +2730,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2736,14 +2763,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2769,14 +2796,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,11 +2813,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2802,14 +2829,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2846,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,31 +2862,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2868,14 +2895,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2912,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,14 +2928,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2945,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,14 +2961,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,11 +2978,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -2967,14 +2994,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,11 +3011,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3000,28 +3027,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -3033,28 +3060,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -3066,31 +3093,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3099,14 +3126,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,11 +3143,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3132,7 +3159,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3145,15 +3172,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3165,31 +3192,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3211,7 +3238,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3238,7 +3265,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3277,15 +3304,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3304,7 +3331,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3341,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,14 +3357,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,14 +3374,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3370,7 +3397,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3407,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3423,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,11 +3440,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3429,14 +3456,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,11 +3473,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3462,14 +3489,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3506,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,14 +3522,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,11 +3539,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3528,28 +3555,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3561,28 +3588,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3594,31 +3621,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,28 +3654,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3660,28 +3687,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3693,31 +3720,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,28 +3753,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3759,28 +3786,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3792,28 +3819,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -3825,7 +3852,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3838,18 +3865,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>229</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,7 +3885,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3871,18 +3898,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3891,28 +3918,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -3924,28 +3951,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -3957,28 +3984,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -3990,31 +4017,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4023,31 +4050,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4063,21 +4090,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
@@ -4096,21 +4123,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>27</v>
@@ -4122,28 +4149,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4155,66 +4182,231 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4555.9200000000001</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>246</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>247</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>248</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>249</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>101</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>207</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>250</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>24</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>101</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>221</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>251</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>137</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>101</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>54</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>252</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>27</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>101</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>207</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>253</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>254</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>101</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>119</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4675</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>255</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>256</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>257</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4648,10 +4840,35 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -374,6 +374,12 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 400 MG 30 CAPS.</t>
   </si>
   <si>
@@ -416,9 +422,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -707,6 +710,15 @@
     <t>حمام كريم فاتيكا 900 جم</t>
   </si>
   <si>
+    <t>ريكسونا بليه بودر دراي</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">زبدة كاكاو لونا </t>
   </si>
   <si>
@@ -716,9 +728,6 @@
     <t>زيت جونسون صغير</t>
   </si>
   <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -737,6 +746,12 @@
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -773,10 +788,13 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 17 June, 2025 8:31 PM</t>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 17 June, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2506,7 +2524,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2516,14 +2534,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2549,14 +2567,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2582,11 +2600,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>27</v>
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2615,11 +2633,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2648,7 +2666,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2671,7 +2689,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2681,11 +2699,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>27</v>
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2737,7 +2755,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2780,11 +2798,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2813,11 +2831,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2846,11 +2864,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2862,31 +2880,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2895,31 +2913,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>159</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3001,7 +3019,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3077,11 +3095,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3110,11 +3128,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -3126,14 +3144,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3159,31 +3177,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3192,7 +3210,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3209,11 +3227,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3242,14 +3260,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3258,28 +3276,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3291,31 +3309,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3331,24 +3349,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3364,7 +3382,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3374,11 +3392,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3390,14 +3408,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3407,11 +3425,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3440,14 +3458,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3463,7 +3481,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3473,11 +3491,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3506,14 +3524,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3529,7 +3547,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3539,14 +3557,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3562,7 +3580,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3572,11 +3590,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3605,11 +3623,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3638,14 +3656,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3671,14 +3689,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3687,28 +3705,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3720,7 +3738,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3737,11 +3755,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3753,14 +3771,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3770,11 +3788,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3786,14 +3804,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3803,11 +3821,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3836,11 +3854,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -3852,14 +3870,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3869,14 +3887,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3885,7 +3903,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3902,14 +3920,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3918,14 +3936,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3935,11 +3953,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -3958,7 +3976,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3968,11 +3986,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -3984,14 +4002,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4001,7 +4019,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4024,7 +4042,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4034,14 +4052,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>239</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4067,14 +4085,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>118</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4100,14 +4118,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4116,7 +4134,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4133,14 +4151,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4149,14 +4167,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4166,11 +4184,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4199,11 +4217,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4215,14 +4233,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4232,11 +4250,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>27</v>
@@ -4265,11 +4283,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4288,7 +4306,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4298,11 +4316,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>27</v>
@@ -4314,14 +4332,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4331,11 +4349,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4364,49 +4382,148 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4675</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>255</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>256</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>138</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>101</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>54</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>257</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>27</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>101</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>208</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>258</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>259</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>101</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>119</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>4868</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>261</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>262</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>263</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4865,10 +4982,25 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -128,60 +128,60 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>38.4000</t>
+  </si>
+  <si>
+    <t>CEFOZON 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>296.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CEFOZON 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>740.00</t>
-  </si>
-  <si>
-    <t>296.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -251,10 +251,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -644,6 +644,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -794,7 +803,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 8:36 PM</t>
+    <t>Tuesday, 17 June, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1666,7 +1675,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1676,14 +1685,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1692,14 +1701,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1713,7 +1722,7 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>27</v>
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1742,11 +1751,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1758,14 +1767,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1775,11 +1784,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>27</v>
@@ -1791,7 +1800,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1808,11 +1817,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>27</v>
@@ -1824,14 +1833,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1864,7 +1873,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1930,7 +1939,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2079,7 +2088,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2109,7 +2118,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2178,7 +2187,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2241,7 +2250,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>27</v>
@@ -2326,7 +2335,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2409,7 +2418,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2435,7 +2444,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2458,7 +2467,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2656,7 +2665,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2788,7 +2797,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2986,7 +2995,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3029,11 +3038,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -3227,7 +3236,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3316,7 +3325,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3359,7 +3368,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3491,7 +3500,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3557,11 +3566,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>76</v>
@@ -3712,7 +3721,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3745,13 +3754,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3759,7 +3768,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3771,7 +3780,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3788,11 +3797,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3811,7 +3820,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3821,11 +3830,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3854,11 +3863,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -3877,7 +3886,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3887,11 +3896,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3920,14 +3929,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3960,7 +3969,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3976,7 +3985,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3986,11 +3995,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4019,11 +4028,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -4042,7 +4051,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4052,11 +4061,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>27</v>
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4101,14 +4110,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4118,14 +4127,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>242</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4134,7 +4143,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>118</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4167,14 +4176,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4184,14 +4193,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4200,14 +4209,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>246</v>
+        <v>118</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4217,11 +4226,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4250,11 +4259,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>27</v>
@@ -4283,11 +4292,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4299,14 +4308,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4316,11 +4325,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>27</v>
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4349,11 +4358,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4382,11 +4391,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4415,11 +4424,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4431,14 +4440,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4448,11 +4457,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4481,49 +4490,82 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q99" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>261</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>262</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>101</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>119</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>138</v>
       </c>
     </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4868</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>261</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>262</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>263</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4998.0799999999999</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>264</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>265</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>266</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4997,10 +5039,15 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -380,15 +380,6 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>GAPTIN 400 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
     <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
   </si>
   <si>
@@ -803,7 +794,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 8:39 PM</t>
+    <t>Tuesday, 17 June, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2566,7 +2557,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2576,14 +2567,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2592,14 +2583,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2632,7 +2623,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2665,7 +2656,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2675,11 +2666,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>27</v>
@@ -2691,14 +2682,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2708,11 +2699,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>27</v>
@@ -2731,7 +2722,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2741,14 +2732,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2757,14 +2748,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2774,11 +2765,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2790,14 +2781,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2807,11 +2798,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2823,14 +2814,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2863,7 +2854,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2896,13 +2887,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2913,7 +2904,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2929,24 +2920,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2955,14 +2946,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2972,14 +2963,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2995,7 +2986,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3005,14 +2996,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3021,14 +3012,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3038,14 +3029,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3071,14 +3062,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3087,14 +3078,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3127,7 +3118,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3160,7 +3151,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3170,14 +3161,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3186,31 +3177,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3219,7 +3210,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3236,7 +3227,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3259,7 +3250,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3276,7 +3267,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3292,13 +3283,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3325,24 +3316,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3351,31 +3342,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3384,14 +3375,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3401,11 +3392,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3424,7 +3415,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3457,7 +3448,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3467,14 +3458,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3483,14 +3474,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3500,11 +3491,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3523,7 +3514,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3533,14 +3524,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3549,14 +3540,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3566,14 +3557,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3582,14 +3573,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3599,11 +3590,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3615,14 +3606,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3632,11 +3623,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3648,14 +3639,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3665,14 +3656,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3681,14 +3672,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3698,14 +3689,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3721,7 +3712,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3754,13 +3745,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3768,7 +3759,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3780,7 +3771,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3797,11 +3788,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3820,7 +3811,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3830,11 +3821,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3846,14 +3837,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3863,11 +3854,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -3886,7 +3877,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3896,11 +3887,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -3912,14 +3903,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3929,14 +3920,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3969,7 +3960,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3985,7 +3976,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3995,11 +3986,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4011,14 +4002,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4028,11 +4019,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -4051,7 +4042,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4061,11 +4052,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>27</v>
@@ -4077,14 +4068,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4094,14 +4085,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4110,14 +4101,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,14 +4118,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>76</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4143,7 +4134,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4160,14 +4151,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4176,14 +4167,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4193,14 +4184,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>223</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4209,14 +4200,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4226,11 +4217,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4242,14 +4233,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4259,11 +4250,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>27</v>
@@ -4292,11 +4283,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4308,14 +4299,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4325,11 +4316,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>27</v>
@@ -4341,14 +4332,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4358,11 +4349,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4374,14 +4365,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4391,11 +4382,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4407,14 +4398,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4424,11 +4415,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>225</v>
+        <v>53</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4440,14 +4431,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4457,11 +4448,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4473,14 +4464,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4490,82 +4481,49 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="A100" s="7">
-        <v>94</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c t="s" r="C100" s="8">
+      <c r="P100" s="13">
+        <v>4946.6000000000004</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
         <v>261</v>
       </c>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c t="s" r="H100" s="9">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
         <v>262</v>
       </c>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c t="s" r="L100" s="10">
-        <v>101</v>
-      </c>
-      <c r="M100" s="10"/>
-      <c t="s" r="N100" s="8">
-        <v>119</v>
-      </c>
-      <c r="O100" s="8"/>
-      <c t="s" r="P100" s="11">
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
         <v>263</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4998.0799999999999</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>264</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>265</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>266</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5039,15 +4997,10 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -374,6 +374,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
@@ -422,6 +431,15 @@
     <t>18.00</t>
   </si>
   <si>
+    <t>MARPALENE 0.1% TOPICAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -434,151 +452,151 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>246.0000</t>
+  </si>
+  <si>
+    <t>PLETAAL 50MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
     <t>12.8700</t>
   </si>
   <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>6:6</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>246.0000</t>
-  </si>
-  <si>
-    <t>PLETAAL 50MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PLEX BEAUTY HAIR CREAM</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>REALCOXSTAR 90MG 14TAB</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>66.5000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>ROYAL ZAD</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+    <t>SUGARLO 50MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
   </si>
   <si>
     <t>TECNOVULA 50MG 20 TABLETS</t>
@@ -629,6 +647,12 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
@@ -734,15 +758,15 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>22:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
@@ -794,7 +818,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 8:45 PM</t>
+    <t>Tuesday, 17 June, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2524,7 +2548,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2534,14 +2558,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2550,14 +2574,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2567,11 +2591,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>27</v>
@@ -2583,14 +2607,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2623,7 +2647,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2656,7 +2680,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2666,11 +2690,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>27</v>
@@ -2682,14 +2706,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2699,11 +2723,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>27</v>
@@ -2722,7 +2746,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2732,14 +2756,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2748,14 +2772,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2765,14 +2789,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2781,14 +2805,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2798,11 +2822,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2821,7 +2845,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2831,11 +2855,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2847,14 +2871,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2864,14 +2888,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2880,31 +2904,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2913,14 +2937,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2930,14 +2954,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2946,31 +2970,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2979,14 +3003,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2996,14 +3020,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3012,14 +3036,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3029,11 +3053,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3045,14 +3069,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3062,11 +3086,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -3078,14 +3102,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3095,14 +3119,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3111,14 +3135,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3128,11 +3152,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -3144,14 +3168,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3161,14 +3185,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3177,28 +3201,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3210,31 +3234,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3243,14 +3267,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3260,14 +3284,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3276,31 +3300,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3309,14 +3333,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,14 +3350,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3342,14 +3366,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3359,11 +3383,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3382,24 +3406,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3408,14 +3432,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3425,11 +3449,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3441,14 +3465,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3458,11 +3482,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3474,14 +3498,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3491,14 +3515,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3507,14 +3531,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3524,14 +3548,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3540,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3557,11 +3581,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3573,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,11 +3614,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3606,14 +3630,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,14 +3647,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3639,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3656,14 +3680,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3689,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3705,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3722,11 +3746,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3738,28 +3762,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3771,31 +3795,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3804,28 +3828,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3837,28 +3861,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -3870,14 +3894,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3887,11 +3911,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -3903,14 +3927,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3920,14 +3944,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,14 +3960,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3953,11 +3977,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -3969,14 +3993,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3986,11 +4010,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4002,14 +4026,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4019,11 +4043,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -4035,14 +4059,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4052,14 +4076,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4068,14 +4092,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4085,14 +4109,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4101,14 +4125,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4118,14 +4142,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>242</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4134,14 +4158,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4151,14 +4175,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>58</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4174,7 +4198,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4200,14 +4224,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>246</v>
+        <v>118</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4217,14 +4241,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4254,10 +4278,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>249</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4283,14 +4307,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4299,14 +4323,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4316,11 +4340,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>27</v>
@@ -4349,11 +4373,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4382,11 +4406,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4398,14 +4422,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4415,11 +4439,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4431,7 +4455,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4448,11 +4472,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4464,14 +4488,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4481,49 +4505,181 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>135</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4946.6000000000004</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>261</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>262</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>263</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>24</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>101</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>230</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>264</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>138</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>101</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>53</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>265</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>27</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>101</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>211</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>266</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>267</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>101</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>119</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5309.0299999999997</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>269</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>270</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>271</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4997,10 +5153,30 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -818,7 +818,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 8:51 PM</t>
+    <t>Tuesday, 17 June, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BRINGO TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>BUSCOPAN 10MG 20 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -134,6 +143,18 @@
     <t>38.4000</t>
   </si>
   <si>
+    <t>CEFOTAX 2 GM VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>CEFOZON 1 GM VIAL</t>
   </si>
   <si>
@@ -167,6 +188,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -188,6 +221,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CO- AVAZIR EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>COBAL F 500/200MCG 30 F.C. TAB</t>
   </si>
   <si>
@@ -248,6 +290,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DESLORASTAMINE 0.5MG/ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -266,9 +317,6 @@
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -296,6 +344,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -419,6 +476,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -434,12 +500,6 @@
     <t>MARPALENE 0.1% TOPICAL CREAM 30 GM</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -461,9 +521,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -476,12 +533,6 @@
     <t>NAPIZOLE 40MG 14CAP</t>
   </si>
   <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -491,6 +542,15 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -602,9 +662,6 @@
     <t>TECNOVULA 50MG 20 TABLETS</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
@@ -656,7 +713,7 @@
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
-    <t>70.0000</t>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -680,9 +737,6 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">برفان كوبي </t>
   </si>
   <si>
@@ -758,13 +812,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>50.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
@@ -791,15 +845,9 @@
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
@@ -818,7 +866,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 8:53 PM</t>
+    <t>Tuesday, 17 June, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1707,7 +1755,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1723,7 +1771,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1733,14 +1781,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1773,7 +1821,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1799,11 +1847,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>27</v>
@@ -1815,14 +1863,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1839,7 +1887,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1872,7 +1920,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1888,7 +1936,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1898,14 +1946,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1914,14 +1962,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1931,14 +1979,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1947,14 +1995,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1964,11 +2012,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1980,7 +2028,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1997,14 +2045,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2013,14 +2061,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2030,14 +2078,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2046,14 +2094,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2070,7 +2118,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2086,7 +2134,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2096,14 +2144,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2119,7 +2167,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2133,7 +2181,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2145,14 +2193,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2162,14 +2210,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2178,14 +2226,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2195,14 +2243,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2211,14 +2259,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2228,14 +2276,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2244,14 +2292,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2261,14 +2309,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2277,14 +2325,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2294,14 +2342,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2310,20 +2358,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2350,7 +2398,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2360,14 +2408,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2376,7 +2424,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2393,11 +2441,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2409,14 +2457,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2426,14 +2474,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2442,14 +2490,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2459,14 +2507,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2475,14 +2523,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2492,14 +2540,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2508,28 +2556,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2541,14 +2589,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2558,14 +2606,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2591,14 +2639,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2607,14 +2655,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2624,14 +2672,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2640,14 +2688,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2657,14 +2705,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2673,14 +2721,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2690,14 +2738,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2713,7 +2761,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2723,11 +2771,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>27</v>
@@ -2739,14 +2787,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2756,14 +2804,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2772,14 +2820,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2789,11 +2837,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>27</v>
@@ -2805,14 +2853,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2822,14 +2870,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,14 +2886,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2855,14 +2903,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2871,14 +2919,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2888,14 +2936,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2904,14 +2952,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2921,14 +2969,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2937,14 +2985,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2954,14 +3002,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2970,28 +3018,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>27</v>
@@ -3003,14 +3051,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,14 +3068,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3036,14 +3084,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3053,11 +3101,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3069,14 +3117,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3086,14 +3134,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3102,14 +3150,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3119,14 +3167,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3135,14 +3183,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3156,10 +3204,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3168,14 +3216,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3185,14 +3233,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3201,28 +3249,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3234,14 +3282,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3251,14 +3299,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3267,28 +3315,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3300,31 +3348,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3333,31 +3381,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3366,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3383,11 +3431,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3399,28 +3447,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
@@ -3439,7 +3487,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3497,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3465,14 +3513,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,11 +3530,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3498,7 +3546,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3515,7 +3563,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3538,24 +3586,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3564,7 +3612,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3577,15 +3625,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3597,31 +3645,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3630,14 +3678,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3647,14 +3695,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3663,28 +3711,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>27</v>
@@ -3696,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,14 +3761,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3729,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,11 +3794,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3762,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3779,14 +3827,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3795,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3812,11 +3860,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3828,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3845,11 +3893,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3861,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3878,11 +3926,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -3894,31 +3942,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3927,28 +3975,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>27</v>
@@ -3967,21 +4015,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -4000,13 +4048,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4014,7 +4062,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4026,28 +4074,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -4059,31 +4107,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4092,28 +4140,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>27</v>
@@ -4125,28 +4173,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
@@ -4158,28 +4206,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>27</v>
@@ -4191,28 +4239,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4224,31 +4272,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4257,31 +4305,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>249</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4290,31 +4338,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>251</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4323,28 +4371,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>27</v>
@@ -4356,31 +4404,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4402,7 +4450,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4429,21 +4477,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4462,21 +4510,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4488,28 +4536,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>27</v>
@@ -4521,31 +4569,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4554,31 +4602,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>54</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4587,31 +4635,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4620,66 +4668,363 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>268</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q103" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>271</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>272</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>120</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>248</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>273</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>24</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>120</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>274</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>276</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>24</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>120</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>248</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>277</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>27</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>120</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>77</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>278</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>269</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>120</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>230</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>279</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>24</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>120</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>248</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>280</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>160</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>120</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>64</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>281</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>27</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>120</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>230</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>282</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>283</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>120</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
         <v>138</v>
       </c>
-    </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5309.0299999999997</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>269</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>270</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>271</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5680.0299999999997</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>285</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>286</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>287</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5173,10 +5518,55 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 8:56 PM</t>
+    <t>Tuesday, 17 June, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 8:57 PM</t>
+    <t>Tuesday, 17 June, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -356,7 +356,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:1</t>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>96.0000</t>
   </si>
   <si>
     <t>ELICA-M CREAM 30 GRAM</t>
@@ -593,6 +596,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
@@ -623,6 +635,15 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>REALCOXSTAR 90MG 14TAB</t>
   </si>
   <si>
@@ -644,6 +665,15 @@
     <t>ROYAL ZAD</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -722,9 +752,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -866,7 +893,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:05 PM</t>
+    <t>Tuesday, 17 June, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2511,10 +2538,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2523,7 +2550,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2540,11 +2567,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2556,7 +2583,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2569,15 +2596,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2589,7 +2616,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2622,7 +2649,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2639,11 +2666,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2655,14 +2682,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2672,11 +2699,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>52</v>
@@ -2688,14 +2715,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2709,7 +2736,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>88</v>
@@ -2721,7 +2748,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2738,11 +2765,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>90</v>
@@ -2754,14 +2781,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2771,11 +2798,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>27</v>
@@ -2787,14 +2814,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2804,11 +2831,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>90</v>
@@ -2820,7 +2847,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2841,7 +2868,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>27</v>
@@ -2853,14 +2880,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2870,11 +2897,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -2886,7 +2913,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2903,11 +2930,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>27</v>
@@ -2919,7 +2946,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2936,11 +2963,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>27</v>
@@ -2952,7 +2979,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2969,11 +2996,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -2985,7 +3012,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3006,7 +3033,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -3018,14 +3045,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3035,7 +3062,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3051,7 +3078,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3084,7 +3111,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3117,7 +3144,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3134,11 +3161,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3150,7 +3177,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3167,7 +3194,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3183,7 +3210,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3200,7 +3227,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3216,7 +3243,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3233,11 +3260,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3249,7 +3276,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3262,7 +3289,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3282,7 +3309,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3299,11 +3326,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>52</v>
@@ -3315,7 +3342,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3332,11 +3359,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3348,7 +3375,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3365,11 +3392,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3381,7 +3408,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3414,14 +3441,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3431,11 +3458,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3447,14 +3474,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,11 +3491,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
@@ -3480,7 +3507,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3497,11 +3524,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3513,14 +3540,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3530,11 +3557,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3546,14 +3573,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3563,14 +3590,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3579,31 +3606,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3612,7 +3639,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3625,15 +3652,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3645,31 +3672,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3678,14 +3705,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3695,14 +3722,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3711,31 +3738,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3744,14 +3771,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3761,11 +3788,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3777,28 +3804,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3810,14 +3837,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3827,14 +3854,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3843,14 +3870,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,11 +3887,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3876,14 +3903,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3893,11 +3920,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3909,14 +3936,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,14 +3953,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3942,14 +3969,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,14 +3986,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3975,14 +4002,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3992,11 +4019,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>27</v>
@@ -4008,14 +4035,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,11 +4052,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -4041,14 +4068,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4058,14 +4085,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4074,14 +4101,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4091,11 +4118,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -4107,14 +4134,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4124,14 +4151,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4140,14 +4167,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4157,11 +4184,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>27</v>
@@ -4173,14 +4200,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4190,11 +4217,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
@@ -4206,14 +4233,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4223,14 +4250,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4239,7 +4266,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4252,15 +4279,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4272,28 +4299,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4305,28 +4332,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>27</v>
@@ -4338,28 +4365,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4371,28 +4398,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>27</v>
@@ -4404,31 +4431,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4437,28 +4464,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4470,28 +4497,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4503,31 +4530,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4536,28 +4563,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>27</v>
@@ -4569,31 +4596,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4602,31 +4629,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4635,31 +4662,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>269</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4668,31 +4695,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4701,31 +4728,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4734,7 +4761,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4747,18 +4774,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>275</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>27</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4767,28 +4794,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -4800,28 +4827,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>27</v>
@@ -4833,28 +4860,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>269</v>
+        <v>24</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>27</v>
@@ -4866,7 +4893,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4879,15 +4906,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>27</v>
@@ -4899,28 +4926,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>65</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>27</v>
@@ -4932,28 +4959,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>27</v>
@@ -4965,66 +4992,165 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>160</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5680.0299999999997</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>285</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>286</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>287</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>289</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>161</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>121</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>64</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>290</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>27</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>121</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>240</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>291</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>292</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>121</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>139</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6090.0299999999997</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>294</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>295</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>296</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5563,10 +5689,25 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BORGASONE 0.1% OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>BRINGO TOPICAL LOTION 120ML</t>
   </si>
   <si>
@@ -281,72 +290,75 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>DESLORASTAMINE 0.5MG/ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>8.4000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DESLORASTAMINE 0.5MG/ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>8.4000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -461,6 +473,12 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
     <t>IMUTREXATE 2.5 MG 10 TABS.</t>
   </si>
   <si>
@@ -479,6 +497,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -494,9 +518,6 @@
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -545,6 +566,15 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -662,6 +692,9 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
     <t>ROYAL ZAD</t>
   </si>
   <si>
@@ -692,9 +725,6 @@
     <t>TECNOVULA 50MG 20 TABLETS</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
   </si>
   <si>
@@ -731,9 +761,6 @@
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
@@ -839,39 +866,42 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم شعر ايفا 85مل </t>
+  </si>
+  <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات كوين حريمي </t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>فلامنجو شفرات للنساء</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t xml:space="preserve">كريم شعر ايفا 85مل </t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -893,7 +923,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:07 PM</t>
+    <t>Tuesday, 17 June, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1732,7 +1762,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1815,7 +1845,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1831,7 +1861,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1841,14 +1871,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1857,14 +1887,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1874,7 +1904,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1907,14 +1937,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1923,14 +1953,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1940,14 +1970,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1956,14 +1986,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1973,11 +2003,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>27</v>
@@ -1989,14 +2019,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2029,7 +2059,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2039,14 +2069,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2055,14 +2085,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2079,7 +2109,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2095,7 +2125,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2112,7 +2142,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2128,7 +2158,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2161,7 +2191,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2194,7 +2224,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2227,7 +2257,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2237,14 +2267,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2253,14 +2283,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2270,14 +2300,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2286,14 +2316,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2310,7 +2340,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2326,7 +2356,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2336,14 +2366,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2359,7 +2389,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2369,14 +2399,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2385,14 +2415,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2402,14 +2432,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2425,7 +2455,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2435,14 +2465,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2451,14 +2481,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2475,7 +2505,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2491,7 +2521,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2508,7 +2538,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2534,14 +2564,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2550,14 +2580,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2567,14 +2597,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2583,20 +2613,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2623,24 +2653,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2649,14 +2679,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2666,11 +2696,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2682,14 +2712,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2706,7 +2736,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2732,14 +2762,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2748,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2765,14 +2795,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2781,14 +2811,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2798,14 +2828,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2821,7 +2851,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2831,14 +2861,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2847,14 +2877,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2864,14 +2894,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2880,14 +2910,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2897,7 +2927,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2920,7 +2950,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2930,11 +2960,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>27</v>
@@ -2946,14 +2976,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2963,14 +2993,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3019,7 +3049,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3029,11 +3059,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -3045,14 +3075,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3062,11 +3092,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>27</v>
@@ -3078,7 +3108,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3095,11 +3125,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -3111,14 +3141,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3128,14 +3158,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3144,14 +3174,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3161,14 +3191,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3177,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3194,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3210,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3227,11 +3257,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3243,14 +3273,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3260,7 +3290,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3283,24 +3313,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3309,14 +3339,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3326,14 +3356,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3349,7 +3379,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3366,7 +3396,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3382,24 +3412,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3408,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3425,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3448,7 +3478,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3458,7 +3488,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3481,7 +3511,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3491,11 +3521,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
@@ -3507,14 +3537,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3524,14 +3554,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3540,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3557,11 +3587,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3573,14 +3603,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3590,14 +3620,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3606,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3623,14 +3653,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3639,24 +3669,24 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3679,13 +3709,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3712,7 +3742,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3751,15 +3781,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3771,31 +3801,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3804,7 +3834,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3817,15 +3847,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3844,7 +3874,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3877,21 +3907,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3903,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3920,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3936,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3953,14 +3983,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3976,24 +4006,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4002,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4019,11 +4049,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>27</v>
@@ -4042,7 +4072,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4052,14 +4082,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4068,14 +4098,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,14 +4115,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>39</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4134,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4151,14 +4181,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4167,7 +4197,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4184,11 +4214,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>27</v>
@@ -4200,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4217,11 +4247,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
@@ -4233,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4250,14 +4280,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4266,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4283,11 +4313,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4299,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4316,11 +4346,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4332,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4349,11 +4379,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>36</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>27</v>
@@ -4372,21 +4402,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4398,31 +4428,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4431,28 +4461,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4464,28 +4494,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4497,28 +4527,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4530,31 +4560,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4563,28 +4593,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>27</v>
@@ -4596,28 +4626,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4629,28 +4659,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>27</v>
@@ -4662,28 +4692,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>27</v>
@@ -4695,31 +4725,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4728,7 +4758,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4741,18 +4771,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4761,31 +4791,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>278</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4794,28 +4824,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -4840,15 +4870,15 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>257</v>
+        <v>143</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>27</v>
@@ -4867,24 +4897,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>283</v>
+        <v>103</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4893,7 +4923,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4906,18 +4936,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>27</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4933,24 +4963,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>27</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4959,28 +4989,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>27</v>
@@ -4992,28 +5022,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>27</v>
@@ -5025,28 +5055,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>27</v>
@@ -5058,28 +5088,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>27</v>
@@ -5091,66 +5121,231 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>161</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6090.0299999999997</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>294</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>295</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>296</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>297</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>287</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>125</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>36</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>298</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>24</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>125</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>266</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>299</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>163</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>125</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>67</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>300</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>27</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>125</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>36</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>301</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>302</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>125</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>143</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6336.0299999999997</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>304</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>305</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>306</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5704,10 +5899,35 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:12 PM</t>
+    <t>Tuesday, 17 June, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -683,6 +683,15 @@
     <t>66.5000</t>
   </si>
   <si>
+    <t>RELAT HAIR SERUM 60 ML</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
@@ -755,9 +764,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -773,6 +779,12 @@
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
+    <t>ZINCODERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -833,12 +845,6 @@
     <t>حفاضات كبار سن</t>
   </si>
   <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>225.0000</t>
-  </si>
-  <si>
     <t>حمام كريم فاتيكا 900 جم</t>
   </si>
   <si>
@@ -923,7 +929,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:14 PM</t>
+    <t>Tuesday, 17 June, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3940,7 +3946,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3957,7 +3963,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3973,7 +3979,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,14 +3989,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3999,7 +4005,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4012,15 +4018,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -4032,28 +4038,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>27</v>
@@ -4072,7 +4078,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,14 +4088,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4115,14 +4121,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4138,7 +4144,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,14 +4154,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,11 +4187,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4204,7 +4210,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,14 +4220,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,11 +4253,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
@@ -4270,7 +4276,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,14 +4319,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,11 +4352,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4362,14 +4368,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,14 +4385,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,7 +4401,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4412,11 +4418,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4435,7 +4441,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,14 +4451,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4461,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,14 +4484,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,14 +4500,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,11 +4517,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4534,7 +4540,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,11 +4550,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4560,28 +4566,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4600,13 +4606,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4633,7 +4639,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4659,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4676,11 +4682,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>27</v>
@@ -4692,14 +4698,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4709,11 +4715,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>27</v>
@@ -4725,14 +4731,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4742,14 +4748,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,14 +4764,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,11 +4781,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>275</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4791,14 +4797,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4808,14 +4814,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4831,7 +4837,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,11 +4847,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -4857,14 +4863,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,11 +4880,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>27</v>
@@ -4890,14 +4896,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4907,14 +4913,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4923,14 +4929,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>24</v>
+        <v>283</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,14 +4946,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>285</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4956,14 +4962,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,14 +4979,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>287</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4989,14 +4995,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5006,14 +5012,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>27</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5022,14 +5028,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5039,14 +5045,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>27</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5055,14 +5061,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5072,11 +5078,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>292</v>
+        <v>143</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>293</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>27</v>
@@ -5088,14 +5094,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5105,11 +5111,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>27</v>
@@ -5121,14 +5127,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5138,11 +5144,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>27</v>
@@ -5154,14 +5160,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>287</v>
+        <v>24</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5171,11 +5177,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>27</v>
@@ -5187,14 +5193,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5204,11 +5210,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>27</v>
@@ -5227,7 +5233,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5237,11 +5243,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>27</v>
@@ -5260,7 +5266,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5270,11 +5276,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>27</v>
@@ -5293,7 +5299,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5303,49 +5309,115 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>302</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>27</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>125</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>36</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>303</v>
       </c>
-      <c t="s" r="Q120" s="12">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>304</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>125</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>143</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q122" s="12">
         <v>163</v>
       </c>
     </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6336.0299999999997</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>304</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>305</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6652.0299999999997</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
         <v>306</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>307</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>308</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5924,10 +5996,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -134,6 +134,24 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>BUSCOPAN 10MG 20 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -278,156 +296,153 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>71.2800</t>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>DESLORASTAMINE 0.5MG/ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>8.4000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>35.7600</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>DESLORASTAMINE 0.5MG/ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>8.4000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EMPIR G CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>35.7600</t>
-  </si>
-  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -815,9 +830,6 @@
     <t>جل صبار انوفا</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -878,39 +890,39 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم شعر ايفا 85مل </t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t xml:space="preserve">شفرات كوين حريمي </t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>فلامنجو شفرات للنساء</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t xml:space="preserve">كريم شعر ايفا 85مل </t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الكبير</t>
-  </si>
-  <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
@@ -929,7 +941,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:26 PM</t>
+    <t>Tuesday, 17 June, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1834,7 +1846,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1884,7 +1896,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1900,7 +1912,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1910,11 +1922,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>27</v>
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1943,14 +1955,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1959,14 +1971,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1976,14 +1988,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1992,14 +2004,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2009,11 +2021,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>27</v>
@@ -2025,14 +2037,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2042,14 +2054,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2075,11 +2087,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>27</v>
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2108,14 +2120,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2141,11 +2153,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>27</v>
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2197,7 +2209,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2214,7 +2226,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2230,7 +2242,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2263,7 +2275,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2296,7 +2308,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2306,14 +2318,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2384,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,14 +2400,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2438,14 +2450,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2461,7 +2473,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2494,7 +2506,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,11 +2648,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2652,31 +2664,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2725,24 +2737,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2768,14 +2780,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2817,14 +2829,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>115</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2883,14 +2895,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,14 +2912,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2916,14 +2928,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,7 +2945,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2956,7 +2968,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2966,14 +2978,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2982,7 +2994,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2999,14 +3011,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3015,14 +3027,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3055,7 +3067,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3069,10 +3081,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3098,11 +3110,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>27</v>
@@ -3121,7 +3133,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3154,7 +3166,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3164,11 +3176,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3197,11 +3209,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3230,11 +3242,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -3246,14 +3258,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,14 +3275,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3279,14 +3291,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3312,14 +3324,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3329,14 +3341,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3362,11 +3374,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3395,14 +3407,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3418,24 +3430,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,14 +3473,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3477,31 +3489,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3510,14 +3522,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,14 +3539,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3543,14 +3555,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,11 +3572,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3576,14 +3588,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,11 +3605,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3609,14 +3621,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,11 +3638,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,11 +3671,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3675,14 +3687,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,14 +3704,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,11 +3737,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3774,14 +3786,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3791,14 +3803,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3814,21 +3826,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3840,31 +3852,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3880,21 +3892,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3906,31 +3918,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3939,14 +3951,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,11 +3968,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3972,28 +3984,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4005,7 +4017,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4022,11 +4034,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -4038,31 +4050,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,11 +4100,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -4104,31 +4116,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4177,7 +4189,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,11 +4199,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4203,14 +4215,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,14 +4232,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4265,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4281,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4298,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,14 +4397,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,11 +4430,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4434,14 +4446,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,14 +4463,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4467,14 +4479,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,14 +4496,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,14 +4512,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4517,11 +4529,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4533,14 +4545,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4550,14 +4562,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,14 +4578,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,11 +4595,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4599,14 +4611,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4616,7 +4628,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4639,21 +4651,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4665,28 +4677,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>27</v>
@@ -4698,28 +4710,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>268</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>27</v>
@@ -4738,13 +4750,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4771,21 +4783,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>273</v>
+        <v>95</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4797,31 +4809,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,28 +4842,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -4870,24 +4882,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4896,28 +4908,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>27</v>
@@ -4936,21 +4948,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>27</v>
@@ -4962,31 +4974,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>103</v>
+        <v>284</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4995,31 +5007,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>24</v>
+        <v>287</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>287</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5035,24 +5047,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>289</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5061,31 +5073,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>27</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5094,31 +5106,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>27</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5127,28 +5139,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>295</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>27</v>
@@ -5160,28 +5172,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>24</v>
+        <v>293</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>27</v>
@@ -5193,24 +5205,24 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5233,21 +5245,21 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>27</v>
@@ -5266,21 +5278,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>27</v>
@@ -5292,28 +5304,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>27</v>
@@ -5325,28 +5337,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>27</v>
@@ -5358,66 +5370,132 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6652.0299999999997</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>306</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>27</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>130</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>36</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>307</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
         <v>308</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>130</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>148</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6737.1999999999998</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>310</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>311</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>312</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6006,10 +6084,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -161,6 +161,12 @@
     <t>37.5000</t>
   </si>
   <si>
+    <t>CANDALKAN 8MG 14 TAB</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -188,9 +194,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
   </si>
   <si>
@@ -266,6 +269,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -302,6 +314,15 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -536,6 +557,12 @@
     <t>18.00</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>MARPALENE 0.1% TOPICAL CREAM 30 GM</t>
   </si>
   <si>
@@ -557,9 +584,6 @@
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -590,6 +614,9 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
     <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -884,7 +911,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -941,7 +968,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:34 PM</t>
+    <t>Tuesday, 17 June, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1945,7 +1972,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1955,14 +1982,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1971,14 +1998,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1988,14 +2015,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2004,14 +2031,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2021,11 +2048,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>27</v>
@@ -2037,14 +2064,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2054,14 +2081,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2070,14 +2097,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2087,14 +2114,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2103,14 +2130,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2120,11 +2147,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>27</v>
@@ -2136,14 +2163,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2153,11 +2180,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>27</v>
@@ -2169,14 +2196,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2186,14 +2213,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2202,14 +2229,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2219,14 +2246,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2235,14 +2262,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2252,14 +2279,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2268,14 +2295,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2285,11 +2312,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2301,14 +2328,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2318,11 +2345,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2334,14 +2361,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2351,11 +2378,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2367,14 +2394,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2384,14 +2411,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2400,14 +2427,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2417,14 +2444,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2433,14 +2460,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2450,14 +2477,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2466,14 +2493,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2483,14 +2510,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2499,14 +2526,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2516,14 +2543,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2532,14 +2559,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2549,11 +2576,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>27</v>
@@ -2565,14 +2592,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2582,14 +2609,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2598,14 +2625,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2615,11 +2642,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2631,14 +2658,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2648,11 +2675,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2664,14 +2691,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2681,14 +2708,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>120</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2697,14 +2724,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2714,14 +2741,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2730,28 +2757,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>27</v>
@@ -2763,14 +2790,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2780,14 +2807,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2796,14 +2823,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2813,14 +2840,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2829,31 +2856,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2869,7 +2896,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2879,14 +2906,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2895,14 +2922,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2912,14 +2939,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2928,14 +2955,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2945,14 +2972,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2961,14 +2988,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2978,14 +3005,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2994,14 +3021,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3011,14 +3038,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3027,14 +3054,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,11 +3071,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -3060,14 +3087,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3077,14 +3104,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3093,14 +3120,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3110,11 +3137,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>27</v>
@@ -3126,14 +3153,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3143,11 +3170,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -3159,14 +3186,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3176,14 +3203,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3192,7 +3219,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3209,11 +3236,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -3225,14 +3252,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3242,11 +3269,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -3258,14 +3285,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3275,11 +3302,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -3291,7 +3318,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3308,11 +3335,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3324,14 +3351,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3341,14 +3368,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3357,14 +3384,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3374,14 +3401,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3390,14 +3417,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3407,11 +3434,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3423,14 +3450,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3440,14 +3467,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3456,14 +3483,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3473,11 +3500,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3496,24 +3523,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3522,14 +3549,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3539,14 +3566,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3562,7 +3589,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3572,11 +3599,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3588,14 +3615,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3605,14 +3632,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3621,31 +3648,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3654,14 +3681,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3671,14 +3698,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3687,14 +3714,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3704,11 +3731,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3720,14 +3747,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3737,11 +3764,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3753,7 +3780,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3770,11 +3797,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3786,14 +3813,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3803,14 +3830,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3819,14 +3846,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3836,11 +3863,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3852,14 +3879,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3869,11 +3896,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3885,28 +3912,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3918,28 +3945,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3951,14 +3978,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3968,11 +3995,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3984,31 +4011,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4017,14 +4044,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4034,14 +4061,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4050,31 +4077,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>53</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4083,7 +4110,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4096,15 +4123,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -4116,28 +4143,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4149,31 +4176,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4182,14 +4209,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,14 +4226,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4215,14 +4242,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,14 +4259,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4248,14 +4275,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,14 +4292,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4281,31 +4308,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4314,14 +4341,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,11 +4358,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>51</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4347,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,14 +4391,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4380,14 +4407,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4397,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4420,7 +4447,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4430,14 +4457,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4453,7 +4480,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,14 +4490,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4479,7 +4506,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4496,11 +4523,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4512,14 +4539,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4529,11 +4556,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4545,14 +4572,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4562,14 +4589,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4578,14 +4605,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4595,11 +4622,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>102</v>
+        <v>260</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4611,14 +4638,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4628,14 +4655,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4644,14 +4671,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4661,11 +4688,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4677,14 +4704,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4694,7 +4721,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4717,24 +4744,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4756,15 +4783,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>27</v>
@@ -4776,28 +4803,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4809,28 +4836,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>27</v>
@@ -4842,28 +4869,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>148</v>
+        <v>275</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -4875,31 +4902,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>280</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4908,28 +4935,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>27</v>
@@ -4941,28 +4968,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>27</v>
@@ -4974,28 +5001,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>27</v>
@@ -5007,28 +5034,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>27</v>
@@ -5040,31 +5067,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5073,7 +5100,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5086,18 +5113,18 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>291</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5106,31 +5133,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>293</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5139,28 +5166,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>149</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>27</v>
@@ -5179,21 +5206,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>274</v>
+        <v>155</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>275</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>27</v>
@@ -5205,31 +5232,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>297</v>
+        <v>115</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>298</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5238,7 +5265,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5251,18 +5278,18 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>27</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5271,31 +5298,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>86</v>
+        <v>288</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>27</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5304,28 +5331,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>27</v>
@@ -5344,21 +5371,21 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>27</v>
@@ -5377,21 +5404,21 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>27</v>
@@ -5403,28 +5430,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>37</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>27</v>
@@ -5436,66 +5463,231 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>168</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6737.1999999999998</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>310</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>311</v>
       </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
         <v>312</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>137</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>36</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>313</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>24</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>137</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>283</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>314</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>175</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>137</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>74</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>315</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>27</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>137</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>36</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>316</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>317</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>137</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>155</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6865.6800000000003</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>319</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>320</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>321</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6094,10 +6286,35 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -80,6 +80,21 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
@@ -92,9 +107,6 @@
     <t>231.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -119,12 +131,6 @@
     <t>BORGASONE 0.1% OINT. 20 GM</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>BRINGO TOPICAL LOTION 120ML</t>
   </si>
   <si>
@@ -536,9 +542,6 @@
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -569,6 +572,9 @@
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
@@ -941,9 +947,6 @@
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
@@ -968,7 +971,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:44 PM</t>
+    <t>Tuesday, 17 June, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1758,7 +1761,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1774,7 +1777,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1784,11 +1787,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1800,14 +1803,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1817,14 +1820,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1833,14 +1836,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1850,11 +1853,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>27</v>
@@ -1866,14 +1869,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1883,14 +1886,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1916,11 +1919,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1932,14 +1935,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1949,14 +1952,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1965,14 +1968,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1982,7 +1985,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -2005,7 +2008,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2015,14 +2018,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2031,14 +2034,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2048,14 +2051,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2064,14 +2067,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2081,11 +2084,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>27</v>
@@ -2114,14 +2117,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2130,14 +2133,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2147,14 +2150,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2163,14 +2166,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2180,11 +2183,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>27</v>
@@ -2196,14 +2199,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2213,11 +2216,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>27</v>
@@ -2229,14 +2232,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2246,14 +2249,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2262,14 +2265,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2279,14 +2282,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2295,14 +2298,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2312,14 +2315,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2328,14 +2331,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2345,11 +2348,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2361,14 +2364,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2378,11 +2381,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2394,14 +2397,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2411,11 +2414,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2427,14 +2430,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2444,11 +2447,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2460,14 +2463,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2477,14 +2480,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2493,14 +2496,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2510,14 +2513,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2526,14 +2529,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2543,14 +2546,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2559,14 +2562,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2576,14 +2579,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2592,14 +2595,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2609,14 +2612,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2625,14 +2628,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2642,14 +2645,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2665,7 +2668,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2679,10 +2682,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2691,14 +2694,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2708,14 +2711,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2724,14 +2727,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2741,14 +2744,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2757,14 +2760,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2774,14 +2777,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2790,14 +2793,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2807,14 +2810,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2823,14 +2826,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2840,14 +2843,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2856,28 +2859,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>27</v>
@@ -2889,31 +2892,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2922,14 +2925,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2939,11 +2942,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2955,14 +2958,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2972,14 +2975,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2988,14 +2991,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3005,14 +3008,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3021,14 +3024,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3038,14 +3041,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3061,7 +3064,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,14 +3074,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,14 +3107,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3120,14 +3123,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3137,14 +3140,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3160,7 +3163,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3170,11 +3173,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3203,14 +3206,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3226,7 +3229,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3240,10 +3243,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3252,14 +3255,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3269,11 +3272,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -3285,14 +3288,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3302,11 +3305,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -3335,11 +3338,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3368,11 +3371,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3391,7 +3394,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3401,11 +3404,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3417,14 +3420,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,14 +3437,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3490,7 +3493,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3523,7 +3526,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3533,14 +3536,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3556,7 +3559,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3566,14 +3569,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3589,7 +3592,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3599,14 +3602,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3615,14 +3618,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3632,11 +3635,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3648,31 +3651,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3681,31 +3684,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3764,14 +3767,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3780,7 +3783,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3797,11 +3800,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3830,14 +3833,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3929,14 +3932,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3945,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3962,11 +3965,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3978,7 +3981,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3995,11 +3998,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -4044,14 +4047,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4061,14 +4064,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4084,24 +4087,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4117,21 +4120,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -4143,28 +4146,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4176,7 +4179,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4189,18 +4192,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4209,31 +4212,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4292,14 +4295,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4308,28 +4311,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>27</v>
@@ -4341,28 +4344,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4391,14 +4394,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4414,7 +4417,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4424,14 +4427,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4440,14 +4443,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4457,14 +4460,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,14 +4476,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4490,11 +4493,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4506,14 +4509,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4523,14 +4526,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4539,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4556,11 +4559,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4572,14 +4575,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4589,14 +4592,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4605,14 +4608,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4622,14 +4625,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>261</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4638,14 +4641,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4655,14 +4658,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4671,14 +4674,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4688,14 +4691,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4704,14 +4707,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4721,11 +4724,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>267</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>27</v>
@@ -4744,7 +4747,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4754,14 +4757,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4770,14 +4773,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4787,14 +4790,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4803,7 +4806,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4820,11 +4823,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4843,7 +4846,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4853,11 +4856,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>27</v>
@@ -4876,7 +4879,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4890,7 +4893,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -4902,28 +4905,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>27</v>
@@ -4935,7 +4938,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4948,15 +4951,15 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>27</v>
@@ -4968,28 +4971,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>27</v>
@@ -5001,28 +5004,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>27</v>
@@ -5034,28 +5037,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>286</v>
+        <v>24</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>156</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>27</v>
@@ -5074,24 +5077,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>288</v>
+        <v>157</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5100,31 +5103,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5133,28 +5136,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>27</v>
@@ -5166,28 +5169,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>27</v>
@@ -5199,28 +5202,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>296</v>
+        <v>62</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>27</v>
@@ -5239,24 +5242,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5265,31 +5268,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>299</v>
+        <v>117</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>300</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5298,28 +5301,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>302</v>
@@ -5338,24 +5341,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>27</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5364,28 +5367,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>283</v>
+        <v>157</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>284</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>27</v>
@@ -5397,28 +5400,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>27</v>
@@ -5430,28 +5433,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>27</v>
@@ -5463,28 +5466,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>27</v>
@@ -5503,21 +5506,21 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>27</v>
@@ -5529,28 +5532,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>27</v>
@@ -5569,21 +5572,21 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>27</v>
@@ -5602,21 +5605,21 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>27</v>
@@ -5635,59 +5638,92 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>317</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
         <v>318</v>
       </c>
-      <c t="s" r="Q129" s="12">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6865.6800000000003</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>139</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>157</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>319</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c t="s" r="Q130" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>6925.6800000000003</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
         <v>320</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
         <v>321</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>322</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6311,10 +6347,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -416,6 +416,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -440,6 +449,9 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -971,7 +983,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:52 PM</t>
+    <t>Tuesday, 17 June, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2866,7 +2878,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2883,7 +2895,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2899,21 +2911,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>27</v>
@@ -2925,31 +2937,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2958,14 +2970,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,11 +2987,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2998,7 +3010,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3008,14 +3020,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3024,14 +3036,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3041,14 +3053,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3057,14 +3069,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3074,14 +3086,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>129</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3090,14 +3102,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3107,14 +3119,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3123,14 +3135,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,11 +3152,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>129</v>
@@ -3156,14 +3168,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3173,11 +3185,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>27</v>
@@ -3189,14 +3201,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3206,14 +3218,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3222,7 +3234,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3239,14 +3251,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3255,14 +3267,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3272,11 +3284,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -3288,14 +3300,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3305,14 +3317,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3321,14 +3333,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3338,11 +3350,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3361,7 +3373,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3394,7 +3406,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3404,11 +3416,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3427,7 +3439,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3441,7 +3453,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3453,14 +3465,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3470,14 +3482,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3493,7 +3505,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,11 +3515,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3519,14 +3531,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3536,14 +3548,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3552,14 +3564,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3569,14 +3581,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3592,7 +3604,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3602,14 +3614,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3625,7 +3637,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3635,11 +3647,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3651,14 +3663,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3668,14 +3680,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3691,24 +3703,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3724,7 +3736,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3741,7 +3753,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3757,24 +3769,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3783,14 +3795,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3800,14 +3812,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3823,7 +3835,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3840,7 +3852,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3856,7 +3868,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3866,14 +3878,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3882,14 +3894,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3899,11 +3911,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3922,7 +3934,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,7 +3944,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3955,7 +3967,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,11 +3977,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3981,14 +3993,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3998,14 +4010,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4014,14 +4026,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,11 +4043,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -4047,14 +4059,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,11 +4076,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -4080,14 +4092,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,14 +4109,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4113,24 +4125,24 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4153,24 +4165,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4179,28 +4191,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -4212,31 +4224,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4245,14 +4257,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4262,11 +4274,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>27</v>
@@ -4278,28 +4290,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4311,7 +4323,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4328,11 +4340,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>27</v>
@@ -4351,24 +4363,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4377,14 +4389,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,11 +4406,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4417,24 +4429,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4443,7 +4455,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4460,11 +4472,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4476,14 +4488,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,11 +4505,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4516,7 +4528,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4533,7 +4545,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4549,7 +4561,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,14 +4571,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4582,7 +4594,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4599,7 +4611,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4615,7 +4627,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4625,14 +4637,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4648,7 +4660,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,11 +4670,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>27</v>
@@ -4674,14 +4686,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,11 +4703,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>129</v>
@@ -4707,14 +4719,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4724,11 +4736,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>27</v>
@@ -4740,14 +4752,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4757,14 +4769,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4773,14 +4785,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4790,14 +4802,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4806,14 +4818,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4823,11 +4835,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4839,14 +4851,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4856,14 +4868,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,14 +4884,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,11 +4901,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -4912,7 +4924,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,11 +4934,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>27</v>
@@ -4938,28 +4950,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>27</v>
@@ -4978,13 +4990,13 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5011,13 +5023,13 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5044,13 +5056,13 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5077,21 +5089,21 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>288</v>
+        <v>101</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>27</v>
@@ -5103,31 +5115,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5136,28 +5148,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>27</v>
@@ -5176,24 +5188,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5202,28 +5214,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>27</v>
@@ -5242,21 +5254,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>298</v>
+        <v>27</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>27</v>
@@ -5268,31 +5280,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>117</v>
+        <v>299</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5301,31 +5313,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>29</v>
+        <v>302</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>302</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5341,24 +5353,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>304</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5367,31 +5379,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>157</v>
+        <v>305</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>158</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>27</v>
+        <v>306</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5400,31 +5412,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>304</v>
+        <v>29</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>27</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5433,28 +5445,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>308</v>
+        <v>161</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>27</v>
@@ -5473,21 +5485,21 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>27</v>
@@ -5506,21 +5518,21 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>92</v>
+        <v>312</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>27</v>
@@ -5532,28 +5544,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>313</v>
+        <v>29</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>27</v>
@@ -5565,28 +5577,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>285</v>
+        <v>92</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>27</v>
@@ -5598,28 +5610,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>24</v>
+        <v>317</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>27</v>
@@ -5631,28 +5643,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>27</v>
@@ -5664,66 +5676,132 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>318</v>
+        <v>24</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q130" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>320</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>27</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>142</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>25</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>321</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>322</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>142</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>161</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q132" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>6925.6800000000003</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>320</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>321</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>322</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7063.6800000000003</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>324</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>325</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>326</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6352,10 +6430,20 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -602,6 +602,12 @@
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -686,6 +692,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>PAXOTRYPS 20 CAPS</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -767,6 +785,15 @@
     <t>ROYAL ZAD</t>
   </si>
   <si>
+    <t>RX MASSAGE SPRAY</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
@@ -791,6 +818,9 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
     <t>TECNOVULA 50MG 20 TABLETS</t>
   </si>
   <si>
@@ -836,6 +866,15 @@
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
+    <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -983,7 +1022,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:55 PM</t>
+    <t>Tuesday, 17 June, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3736,21 +3775,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3762,31 +3801,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3795,31 +3834,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3828,14 +3867,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3845,14 +3884,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3861,14 +3900,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3878,14 +3917,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3894,7 +3933,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3911,11 +3950,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3927,14 +3966,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3944,14 +3983,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3960,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3977,14 +4016,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3993,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4010,14 +4049,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4026,14 +4065,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4043,14 +4082,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4059,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4076,11 +4115,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -4092,7 +4131,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4109,11 +4148,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>27</v>
@@ -4125,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4142,14 +4181,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4158,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4175,11 +4214,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4191,28 +4230,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -4224,28 +4263,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>27</v>
@@ -4257,7 +4296,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4274,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4290,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4307,14 +4346,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4323,7 +4362,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4336,15 +4375,15 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>27</v>
@@ -4356,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4373,14 +4412,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4389,31 +4428,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4422,7 +4461,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4435,15 +4474,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>27</v>
@@ -4455,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,14 +4511,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4488,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4505,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4528,21 +4567,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4554,31 +4593,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4594,7 +4633,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4611,7 +4650,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4627,7 +4666,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4637,14 +4676,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4653,7 +4692,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4670,11 +4709,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>27</v>
@@ -4686,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4703,14 +4742,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4719,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4736,14 +4775,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>267</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4752,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4769,14 +4808,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4785,7 +4824,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4802,11 +4841,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>27</v>
@@ -4818,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4835,11 +4874,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>86</v>
+        <v>276</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4851,14 +4890,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4868,14 +4907,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4884,14 +4923,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4901,11 +4940,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -4917,14 +4956,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4934,14 +4973,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>277</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4950,14 +4989,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4967,11 +5006,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>27</v>
@@ -4983,14 +5022,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5000,11 +5039,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>27</v>
@@ -5016,31 +5055,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5049,31 +5088,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5082,28 +5121,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>27</v>
@@ -5115,24 +5154,24 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>289</v>
+        <v>117</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5155,21 +5194,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>27</v>
@@ -5188,13 +5227,13 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5205,7 +5244,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5221,7 +5260,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5231,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>27</v>
@@ -5264,11 +5303,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>27</v>
@@ -5280,14 +5319,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5297,11 +5336,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>27</v>
@@ -5320,7 +5359,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>302</v>
+        <v>24</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5330,11 +5369,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>27</v>
@@ -5346,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>160</v>
+        <v>305</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5363,14 +5402,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5379,7 +5418,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5396,14 +5435,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>306</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5412,7 +5451,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5429,14 +5468,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>308</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5445,14 +5484,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5462,11 +5501,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>27</v>
@@ -5478,14 +5517,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5495,11 +5534,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>27</v>
@@ -5511,14 +5550,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>29</v>
+        <v>315</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5528,11 +5567,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>313</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>27</v>
@@ -5544,14 +5583,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5561,14 +5600,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>289</v>
+        <v>117</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>290</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5577,14 +5616,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5594,14 +5633,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>92</v>
+        <v>318</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>27</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5610,14 +5649,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5627,14 +5666,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>27</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5643,14 +5682,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5660,11 +5699,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>289</v>
+        <v>161</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>290</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>27</v>
@@ -5676,14 +5715,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5693,11 +5732,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>27</v>
@@ -5709,14 +5748,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5726,11 +5765,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>27</v>
@@ -5742,14 +5781,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>322</v>
+        <v>29</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5759,49 +5798,247 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q132" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>328</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>27</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>142</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>92</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>329</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>330</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>142</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>25</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>331</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>29</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>142</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>302</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>332</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7063.6800000000003</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>324</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>325</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>326</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>142</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>76</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>333</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>27</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>142</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>25</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>334</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>335</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>142</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>161</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>7388</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>337</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>338</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>339</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6440,10 +6677,40 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -1022,7 +1022,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:58 PM</t>
+    <t>Tuesday, 17 June, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -1022,7 +1022,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 9:59 PM</t>
+    <t>Tuesday, 17 June, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -92,15 +107,9 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>231.00</t>
   </si>
   <si>
@@ -449,6 +458,9 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
+    <t>103.7400</t>
+  </si>
+  <si>
     <t>ESMORAP 40MG 14 CAPS</t>
   </si>
   <si>
@@ -494,12 +506,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -566,6 +572,15 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
+    <t>KLACID 250MG 14 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>146.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -1022,7 +1037,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 10:00 PM</t>
+    <t>Tuesday, 17 June, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1696,7 +1711,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1706,14 +1721,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1722,14 +1737,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1739,14 +1754,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1755,14 +1770,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1772,14 +1787,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1812,7 +1827,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1828,7 +1843,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1838,14 +1853,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1854,14 +1869,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1894,7 +1909,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1904,14 +1919,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1920,14 +1935,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1937,14 +1952,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1960,7 +1975,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1970,14 +1985,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1986,14 +2001,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2003,11 +2018,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2019,14 +2034,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2043,7 +2058,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2059,7 +2074,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2069,14 +2084,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2085,14 +2100,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2102,14 +2117,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2125,7 +2140,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2135,14 +2150,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2151,14 +2166,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2168,14 +2183,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2184,14 +2199,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2201,14 +2216,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2217,14 +2232,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2234,14 +2249,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2267,14 +2282,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2283,14 +2298,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2307,7 +2322,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2323,7 +2338,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2333,14 +2348,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2373,7 +2388,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2389,7 +2404,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2406,7 +2421,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2422,7 +2437,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2455,7 +2470,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2488,7 +2503,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2521,7 +2536,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2554,7 +2569,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2670,7 +2685,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2686,7 +2701,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2696,14 +2711,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2719,7 +2734,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2729,14 +2744,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2762,14 +2777,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2785,7 +2800,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2835,7 +2850,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2851,7 +2866,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2861,14 +2876,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2877,14 +2892,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2917,7 +2932,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2927,14 +2942,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2950,7 +2965,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2967,7 +2982,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2983,24 +2998,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3009,31 +3024,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3042,14 +3057,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3092,11 +3107,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3129,10 +3144,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3158,14 +3173,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>156</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3181,7 +3196,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3191,14 +3206,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3224,14 +3239,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3247,7 +3262,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3257,14 +3272,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3313,7 +3328,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3379,7 +3394,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3393,10 +3408,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3422,14 +3437,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3455,14 +3470,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3471,7 +3486,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3488,14 +3503,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3504,14 +3519,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3521,14 +3536,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3537,14 +3552,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3554,14 +3569,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3577,7 +3592,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3587,14 +3602,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3603,7 +3618,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3653,14 +3668,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3669,14 +3684,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3686,14 +3701,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3702,14 +3717,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3719,14 +3734,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3735,14 +3750,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3752,11 +3767,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3768,31 +3783,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3801,14 +3816,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3818,11 +3833,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3841,24 +3856,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3867,14 +3882,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3884,14 +3899,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3900,31 +3915,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3933,14 +3948,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3950,14 +3965,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3966,14 +3981,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3983,14 +3998,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3999,14 +4014,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4016,14 +4031,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4032,14 +4047,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4049,14 +4064,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4065,14 +4080,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>218</v>
+        <v>67</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4082,11 +4097,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4131,14 +4146,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4148,14 +4163,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4164,14 +4179,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4181,14 +4196,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4197,14 +4212,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4214,14 +4229,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4230,14 +4245,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4247,14 +4262,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4263,14 +4278,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4280,14 +4295,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4296,14 +4311,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4313,14 +4328,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4336,24 +4351,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4362,31 +4377,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4402,24 +4417,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>58</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4428,31 +4443,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4461,14 +4476,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4478,14 +4493,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4494,28 +4509,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4527,14 +4542,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4544,14 +4559,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>84</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4560,31 +4575,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4593,31 +4608,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4626,31 +4641,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4659,31 +4674,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4699,7 +4714,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4716,7 +4731,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4732,7 +4747,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4742,14 +4757,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4758,14 +4773,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4775,14 +4790,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4791,14 +4806,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,14 +4823,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4824,14 +4839,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4841,14 +4856,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4857,14 +4872,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4874,14 +4889,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4890,14 +4905,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,14 +4922,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4923,14 +4938,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4940,14 +4955,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,14 +4971,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4973,14 +4988,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4989,14 +5004,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5006,14 +5021,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5022,14 +5037,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5039,14 +5054,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5055,14 +5070,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,14 +5087,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5088,14 +5103,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5105,14 +5120,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>286</v>
+        <v>89</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5121,14 +5136,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5138,14 +5153,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5154,14 +5169,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5171,14 +5186,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5187,14 +5202,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5204,14 +5219,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>292</v>
+        <v>114</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5220,14 +5235,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5237,14 +5252,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>294</v>
+        <v>120</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5260,24 +5275,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5286,31 +5301,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5319,31 +5334,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5352,31 +5367,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5385,31 +5400,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5431,7 +5446,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5442,7 +5457,7 @@
         <v>308</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5458,24 +5473,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5484,31 +5499,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5517,31 +5532,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5550,31 +5565,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>315</v>
+        <v>21</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5590,24 +5605,24 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>117</v>
+        <v>317</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>171</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5616,31 +5631,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>29</v>
+        <v>320</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>319</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5649,31 +5664,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>321</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5689,24 +5704,24 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>27</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5715,31 +5730,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>321</v>
+        <v>18</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>27</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5748,31 +5763,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5781,31 +5796,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>29</v>
+        <v>326</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5814,31 +5829,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>92</v>
+        <v>330</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>191</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5847,31 +5862,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>330</v>
+        <v>18</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5880,31 +5895,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5913,31 +5928,31 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -5946,31 +5961,31 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -5979,66 +5994,132 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>335</v>
+        <v>29</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>7388</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>337</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
         <v>338</v>
       </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>21</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>145</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>30</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
         <v>339</v>
       </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>340</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>145</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>19</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>341</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>7632</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>342</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>343</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>344</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6707,10 +6788,20 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -323,612 +323,624 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>DESLORASTAMINE 0.5MG/ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>8.4000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>103.7400</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>35.7600</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>KLACID 250MG 14 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>146.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>MARPALENE 0.1% TOPICAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>PAXOTRYPS 20 CAPS</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>246.0000</t>
+  </si>
+  <si>
+    <t>PLETAAL 50MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:97</t>
+  </si>
+  <si>
+    <t>3.9600</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
+    <t>RELAT HAIR SERUM 60 ML</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>RX MASSAGE SPRAY</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>SUGARLO 50MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>TECNOVULA 50MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>ZINCODERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان كوبي </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>جل صبار انوفا</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>DESLORASTAMINE 0.5MG/ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>8.4000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIOMACTE 1000MG/5ML SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EMPIR G CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>103.7400</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>35.7600</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>FUSI-ZON CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 100MG/2ML 6 AMPS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>KLACID 250MG 14 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>146.00</t>
-  </si>
-  <si>
-    <t>146.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>MARPALENE 0.1% TOPICAL CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>6:6</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>PAXOTRYPS 20 CAPS</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>246.0000</t>
-  </si>
-  <si>
-    <t>PLETAAL 50MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PLEX BEAUTY HAIR CREAM</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRETOPRAZAN  20MG  14CAPS</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>REALCOXSTAR 90MG 14TAB</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>66.5000</t>
-  </si>
-  <si>
-    <t>RELAT HAIR SERUM 60 ML</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>225.0000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL CREAM 20GM</t>
-  </si>
-  <si>
-    <t>ROYAL ZAD</t>
-  </si>
-  <si>
-    <t>RX MASSAGE SPRAY</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>SUGARLO 50MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>TECNOVULA 50MG 20 TABLETS</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>TRITOSPOT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VONSECA 20MG 14 TAB</t>
-  </si>
-  <si>
-    <t>WINZOXIB 90MG 20 TAB</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>XILONE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>ZINCODERM TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان كوبي </t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>جل صبار انوفا</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -989,15 +1001,18 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t xml:space="preserve">شفرات كوين حريمي </t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
-  </si>
-  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -1037,7 +1052,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 10:09 PM</t>
+    <t>Tuesday, 17 June, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2619,7 +2634,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2734,7 +2749,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2748,10 +2763,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2760,7 +2775,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2777,7 +2792,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2793,7 +2808,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>67</v>
@@ -2859,7 +2874,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2876,11 +2891,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2909,11 +2924,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2946,10 +2961,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2958,7 +2973,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2975,11 +2990,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3024,7 +3039,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3037,15 +3052,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3057,7 +3072,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3078,7 +3093,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>82</v>
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3107,11 +3122,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3123,7 +3138,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3140,11 +3155,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3173,11 +3188,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>67</v>
@@ -3243,10 +3258,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3312,7 +3327,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3503,11 +3518,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3559,7 +3574,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3767,7 +3782,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3862,7 +3877,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3928,7 +3943,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -4120,7 +4135,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4423,7 +4438,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4456,7 +4471,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4483,7 +4498,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4493,14 +4508,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4522,7 +4537,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4533,7 +4548,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4549,13 +4564,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4566,7 +4581,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4582,7 +4597,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4599,7 +4614,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4615,7 +4630,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4625,14 +4640,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4641,7 +4656,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4654,15 +4669,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4674,7 +4689,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4687,15 +4702,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4714,13 +4729,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4747,7 +4762,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4757,14 +4772,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4773,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4790,14 +4805,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4813,7 +4828,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4823,11 +4838,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4839,14 +4854,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4856,14 +4871,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4872,14 +4887,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4889,11 +4904,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4912,7 +4927,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4922,14 +4937,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4938,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4955,11 +4970,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>281</v>
+        <v>58</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4978,7 +4993,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4988,14 +5003,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5004,14 +5019,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5021,14 +5036,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5037,14 +5052,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5054,14 +5069,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5070,14 +5085,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5087,14 +5102,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5103,7 +5118,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5120,11 +5135,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>288</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5136,14 +5151,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5153,14 +5168,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5169,14 +5184,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5186,11 +5201,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5209,7 +5224,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5219,14 +5234,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>114</v>
+        <v>294</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5235,7 +5250,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5252,11 +5267,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>295</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5268,14 +5283,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5285,11 +5300,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>297</v>
+        <v>119</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5301,14 +5316,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5318,11 +5333,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>300</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5341,21 +5356,21 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>86</v>
+        <v>302</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5367,7 +5382,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5380,15 +5395,15 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>303</v>
+        <v>86</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>304</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5407,21 +5422,21 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5433,28 +5448,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5466,28 +5481,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5499,31 +5514,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5532,7 +5547,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5545,18 +5560,18 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5565,28 +5580,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5598,28 +5613,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>318</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>21</v>
@@ -5631,28 +5646,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5664,31 +5679,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5697,31 +5712,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>323</v>
+        <v>119</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>324</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5730,7 +5745,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5743,18 +5758,18 @@
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>87</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5763,31 +5778,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5796,28 +5811,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>326</v>
+        <v>164</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>21</v>
@@ -5829,28 +5844,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>18</v>
+        <v>333</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5862,7 +5877,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5875,15 +5890,15 @@
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -5895,28 +5910,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -5928,28 +5943,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>335</v>
+        <v>21</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>21</v>
@@ -5961,28 +5976,28 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>307</v>
+        <v>30</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>308</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>21</v>
@@ -5994,28 +6009,28 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>21</v>
@@ -6027,28 +6042,28 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>21</v>
@@ -6060,66 +6075,99 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>340</v>
+        <v>21</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>341</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q140" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>344</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>345</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>144</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>19</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>346</v>
+      </c>
+      <c t="s" r="Q141" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>7632</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
-        <v>342</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
-        <v>343</v>
-      </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
-        <v>344</v>
-      </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>7662.7200000000003</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>347</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>348</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>349</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6798,10 +6846,15 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -1052,7 +1052,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 10:11 PM</t>
+    <t>Tuesday, 17 June, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -608,6 +617,9 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -641,7 +653,10 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>43.5600</t>
+    <t>54.1200</t>
+  </si>
+  <si>
+    <t>0:5</t>
   </si>
   <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
@@ -938,9 +953,6 @@
     <t>جل صبار انوفا</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -1001,7 +1013,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>13:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
@@ -1052,7 +1064,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 10:15 PM</t>
+    <t>Tuesday, 17 June, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2697,10 +2709,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2709,14 +2721,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2733,7 +2745,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2749,7 +2761,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2792,14 +2804,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2825,14 +2837,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2848,7 +2860,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2858,14 +2870,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2874,14 +2886,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2898,7 +2910,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2914,7 +2926,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2924,14 +2936,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2957,14 +2969,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2980,7 +2992,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3013,7 +3025,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3030,7 +3042,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3046,21 +3058,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3072,31 +3084,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3155,11 +3167,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3178,7 +3190,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3188,14 +3200,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3221,14 +3233,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>160</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>131</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3343,7 +3355,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3353,14 +3365,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3386,11 +3398,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3423,10 +3435,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3435,14 +3447,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3452,14 +3464,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3475,7 +3487,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3508,7 +3520,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3518,11 +3530,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3534,14 +3546,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3551,11 +3563,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3574,7 +3586,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3584,11 +3596,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3600,14 +3612,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3617,11 +3629,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3640,7 +3652,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3654,7 +3666,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3666,14 +3678,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3683,14 +3695,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3749,11 +3761,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3782,14 +3794,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3815,14 +3827,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3831,14 +3843,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3848,14 +3860,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3864,31 +3876,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3897,14 +3909,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3914,11 +3926,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3930,31 +3942,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3970,7 +3982,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3987,7 +3999,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4003,24 +4015,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4029,14 +4041,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4046,14 +4058,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4062,14 +4074,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4079,14 +4091,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4095,14 +4107,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4112,14 +4124,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4128,14 +4140,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,11 +4157,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4161,14 +4173,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,11 +4190,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4194,14 +4206,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4211,11 +4223,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4227,14 +4239,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4244,14 +4256,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4260,14 +4272,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4277,14 +4289,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4293,14 +4305,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4310,14 +4322,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4326,7 +4338,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4343,14 +4355,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4359,14 +4371,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4376,14 +4388,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4392,14 +4404,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4409,14 +4421,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4432,21 +4444,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4458,31 +4470,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4498,24 +4510,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4524,28 +4536,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4557,31 +4569,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4590,14 +4602,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4607,11 +4619,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4623,28 +4635,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4656,7 +4668,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4673,11 +4685,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>87</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4689,31 +4701,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>58</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4722,7 +4734,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4735,15 +4747,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>86</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4755,28 +4767,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>58</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4788,31 +4800,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4861,7 +4873,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4871,14 +4883,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4887,14 +4899,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,14 +4916,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4920,14 +4932,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4937,14 +4949,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4953,14 +4965,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,14 +4982,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4986,14 +4998,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,14 +5015,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5019,14 +5031,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,14 +5048,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5052,14 +5064,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5069,11 +5081,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5085,14 +5097,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5102,14 +5114,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5118,14 +5130,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,11 +5147,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5151,14 +5163,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5168,14 +5180,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>291</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5184,14 +5196,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,14 +5213,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5217,14 +5229,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5234,14 +5246,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>294</v>
+        <v>89</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5250,14 +5262,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5267,14 +5279,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5283,14 +5295,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5300,14 +5312,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5316,14 +5328,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,11 +5345,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>300</v>
+        <v>117</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5349,14 +5361,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5366,7 +5378,7 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>302</v>
+        <v>122</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
@@ -5389,21 +5401,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5415,28 +5427,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5448,20 +5460,20 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5488,13 +5500,13 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
@@ -5521,21 +5533,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5547,31 +5559,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5580,28 +5592,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5620,24 +5632,24 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5646,28 +5658,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5686,21 +5698,21 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>324</v>
+        <v>21</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5712,31 +5724,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>119</v>
+        <v>325</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>173</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5745,31 +5757,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>328</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5785,24 +5797,24 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>316</v>
+        <v>122</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>330</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5811,31 +5823,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>21</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5844,31 +5856,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>333</v>
+        <v>18</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>21</v>
+        <v>334</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5877,28 +5889,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>336</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -5910,28 +5922,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>18</v>
+        <v>337</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -5950,21 +5962,21 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>95</v>
+        <v>339</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>21</v>
@@ -5976,28 +5988,28 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>340</v>
+        <v>18</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>21</v>
@@ -6009,28 +6021,28 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>311</v>
+        <v>95</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>21</v>
@@ -6042,28 +6054,28 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>29</v>
+        <v>344</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>21</v>
@@ -6075,28 +6087,28 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>21</v>
@@ -6108,66 +6120,132 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>345</v>
+        <v>29</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q141" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>347</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>21</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>147</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>30</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>348</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>349</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>147</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>19</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q143" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>7662.7200000000003</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
-        <v>347</v>
-      </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
-        <v>348</v>
-      </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
-        <v>349</v>
-      </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="P144" s="13">
+        <v>7834.2799999999997</v>
+      </c>
+      <c r="Q144" s="13"/>
+    </row>
+    <row r="145" ht="16.5" customHeight="1">
+      <c t="s" r="A145" s="14">
+        <v>351</v>
+      </c>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c t="s" r="G145" s="15">
+        <v>352</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c t="s" r="K145" s="17">
+        <v>353</v>
+      </c>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="697">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6851,10 +6929,20 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="K145:Q145"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-17_00-00.xlsx
+++ b/DaySale_2025-06-17_00-00.xlsx
@@ -626,6 +626,9 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -1064,7 +1067,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Tuesday, 17 June, 2025 10:17 PM</t>
+    <t>Tuesday, 17 June, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3916,7 +3919,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3926,14 +3929,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3949,21 +3952,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3975,28 +3978,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4008,31 +4011,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4048,24 +4051,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4074,14 +4077,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4091,14 +4094,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4107,14 +4110,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4124,14 +4127,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4157,11 +4160,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4173,14 +4176,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4190,14 +4193,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4206,14 +4209,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4223,14 +4226,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4246,7 +4249,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4256,14 +4259,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4272,14 +4275,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4289,14 +4292,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4305,14 +4308,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4322,11 +4325,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4338,7 +4341,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4355,14 +4358,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4371,14 +4374,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4388,11 +4391,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4411,7 +4414,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4421,14 +4424,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4437,14 +4440,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4454,11 +4457,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4470,14 +4473,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4487,14 +4490,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4503,31 +4506,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4536,7 +4539,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4553,11 +4556,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4569,31 +4572,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4602,14 +4605,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4619,14 +4622,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4635,7 +4638,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4648,18 +4651,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4668,31 +4671,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4701,14 +4704,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4718,14 +4721,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4734,14 +4737,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4751,14 +4754,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4780,15 +4783,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4817,11 +4820,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4833,28 +4836,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4866,14 +4869,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4883,14 +4886,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4899,14 +4902,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4916,14 +4919,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4932,14 +4935,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4949,11 +4952,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4972,7 +4975,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4982,14 +4985,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5005,7 +5008,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5015,11 +5018,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5031,14 +5034,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5048,14 +5051,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5071,7 +5074,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5081,11 +5084,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>289</v>
+        <v>58</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5097,14 +5100,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5114,14 +5117,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>56</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5137,7 +5140,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5147,14 +5150,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>290</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5170,7 +5173,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5180,14 +5183,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>165</v>
+        <v>290</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5203,7 +5206,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5213,14 +5216,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5246,11 +5249,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5262,14 +5265,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5279,14 +5282,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5302,7 +5305,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5312,11 +5315,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5328,14 +5331,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5345,14 +5348,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>118</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5378,11 +5381,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>303</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5394,14 +5397,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5411,11 +5414,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>305</v>
+        <v>122</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>139</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5427,14 +5430,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5444,11 +5447,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5460,28 +5463,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>87</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5510,11 +5513,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5526,14 +5529,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5543,11 +5546,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5566,7 +5569,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5576,11 +5579,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>315</v>
+        <v>86</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>316</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5592,14 +5595,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>318</v>
+        <v>29</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5609,11 +5612,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5625,14 +5628,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5642,14 +5645,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5658,7 +5661,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5675,14 +5678,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>264</v>
+        <v>321</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5698,7 +5701,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5708,11 +5711,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5731,7 +5734,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5741,11 +5744,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5757,14 +5760,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>328</v>
+        <v>65</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5774,11 +5777,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>21</v>
@@ -5790,14 +5793,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5807,14 +5810,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5830,7 +5833,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5840,14 +5843,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>331</v>
+        <v>122</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>332</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5856,7 +5859,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5873,14 +5876,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5889,14 +5892,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5906,14 +5909,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>21</v>
+        <v>335</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5929,7 +5932,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5939,11 +5942,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>316</